--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825377.8294603894</v>
+        <v>765921.9424954569</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4065790.381183236</v>
+        <v>4065790.381183237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11996757.38029104</v>
+        <v>11996757.38029103</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7545883.577930083</v>
+        <v>7545883.577930082</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>34.06259291064546</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>81.49971487426107</v>
       </c>
       <c r="S11" t="n">
-        <v>34.06259291064549</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="V11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.804876344461542</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
     </row>
     <row r="13">
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="I13" t="n">
-        <v>11.44003276764034</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.84201380359814</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="S13" t="n">
+      <c r="Y13" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="T13" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>81.49971487426107</v>
       </c>
       <c r="S14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>34.06259291064544</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="V14" t="n">
-        <v>34.06259291064545</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="V15" t="n">
-        <v>51.56107156618203</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="X16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,52 +1852,52 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="F17" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>81.49971487426107</v>
-      </c>
-      <c r="S17" t="n">
-        <v>34.06259291064549</v>
-      </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S18" t="n">
-        <v>131.2015301826823</v>
+        <v>51.56107156618202</v>
       </c>
       <c r="T18" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="V18" t="n">
-        <v>51.56107156618203</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>70.28204657123847</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>70.28204657123857</v>
       </c>
       <c r="V19" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>34.06259291064549</v>
       </c>
       <c r="X20" t="n">
         <v>131.2015301826823</v>
@@ -2159,11 +2159,11 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
@@ -2174,61 +2174,61 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="X21" t="n">
         <v>115.5623077849066</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>131.2015301826823</v>
-      </c>
       <c r="Y21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,55 +2238,55 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70.28204657123847</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>45.28026121366808</v>
+      </c>
+      <c r="R22" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="C22" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>115.5623077849067</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>131.2015301826823</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>81.49971487426107</v>
       </c>
       <c r="S23" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>146.3549777417639</v>
+        <v>235.4736510520778</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,19 +2405,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>33.80728841105594</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I24" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>111.476430675433</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.9544837596171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>4.784805351157304</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>81.49971487426107</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S26" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.3313648658995</v>
+        <v>141.6278695336885</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>109.3150108172226</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2642,19 +2642,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H27" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U27" t="n">
-        <v>225.903069777428</v>
+        <v>34.65063491236413</v>
       </c>
       <c r="V27" t="n">
-        <v>129.8612781028946</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.41815289347353</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.8744991677805</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>328.3281935684761</v>
       </c>
       <c r="I29" t="n">
-        <v>24.0196484187839</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>81.49971487426107</v>
+        <v>50.81736653472466</v>
       </c>
       <c r="S29" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>119.4765879333546</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>69.34652732857948</v>
@@ -2924,10 +2924,10 @@
         <v>160.8663307357858</v>
       </c>
       <c r="T30" t="n">
-        <v>197.8174615641865</v>
+        <v>154.813526903886</v>
       </c>
       <c r="U30" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>101.6880180082538</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>283.4572429439165</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>199.663457169024</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.49971487426107</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>166.7738089534647</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3113,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>100.4606832775831</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U33" t="n">
         <v>225.903069777428</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>6.122218668155349</v>
       </c>
     </row>
     <row r="34">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>33.64895526930945</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.4572429439165</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>71.90177186870056</v>
+        <v>48.153595734623</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>47.12190953393747</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>139.008048914147</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T36" t="n">
         <v>197.8174615641865</v>
@@ -3404,7 +3404,7 @@
         <v>225.903069777428</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>128.1160059430447</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.3046042161133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H38" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>93.8640714284073</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>360.5271856170618</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>125.7007704991971</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.471931034616752</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R40" t="n">
-        <v>67.79908864696057</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>215.5082519109386</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>29.79373185625222</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>355.771694044274</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>137.2691654813393</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>48.08611278771535</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>146.8431799514533</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U43" t="n">
-        <v>283.3073405578988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>127.9661035570272</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>15.88748255996637</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>137.2691654813393</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.99471811909803</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>157.194276354195</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H45" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U45" t="n">
         <v>225.903069777428</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>222.6438999963626</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>77.45345114484931</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="C11" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="D11" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E11" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F11" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G11" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H11" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I11" t="n">
         <v>10.49612241461459</v>
@@ -5044,22 +5044,22 @@
         <v>90.11941249266593</v>
       </c>
       <c r="K11" t="n">
+        <v>90.11941249266593</v>
+      </c>
+      <c r="L11" t="n">
         <v>220.0089273735214</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>349.898442254377</v>
       </c>
-      <c r="M11" t="n">
-        <v>479.7879571352324</v>
-      </c>
       <c r="N11" t="n">
-        <v>524.8061207307293</v>
+        <v>349.898442254377</v>
       </c>
       <c r="O11" t="n">
-        <v>524.8061207307293</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="P11" t="n">
-        <v>524.8061207307293</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q11" t="n">
         <v>524.8061207307293</v>
@@ -5068,25 +5068,25 @@
         <v>442.4831764132938</v>
       </c>
       <c r="S11" t="n">
-        <v>408.0765169075913</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="T11" t="n">
-        <v>408.0765169075913</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="U11" t="n">
-        <v>408.0765169075913</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="V11" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="W11" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="X11" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>327.6316092141567</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C12" t="n">
-        <v>327.6316092141567</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D12" t="n">
-        <v>327.6316092141567</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E12" t="n">
-        <v>195.1048110498311</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F12" t="n">
-        <v>195.1048110498311</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G12" t="n">
-        <v>188.231198580678</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H12" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I12" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J12" t="n">
-        <v>64.22582882795403</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K12" t="n">
-        <v>194.1153437088095</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L12" t="n">
-        <v>239.7459972954233</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="M12" t="n">
-        <v>245.1112209220098</v>
+        <v>135.1375760881628</v>
       </c>
       <c r="N12" t="n">
         <v>265.0270909690183</v>
@@ -5144,28 +5144,28 @@
         <v>524.8061207307293</v>
       </c>
       <c r="R12" t="n">
-        <v>460.1584073784823</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S12" t="n">
-        <v>327.6316092141567</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="T12" t="n">
-        <v>327.6316092141567</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="U12" t="n">
-        <v>327.6316092141567</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="V12" t="n">
-        <v>327.6316092141567</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W12" t="n">
-        <v>327.6316092141567</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X12" t="n">
-        <v>327.6316092141567</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y12" t="n">
-        <v>327.6316092141567</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C13" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="D13" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="E13" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="F13" t="n">
-        <v>81.48808864818881</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G13" t="n">
-        <v>81.48808864818881</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H13" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I13" t="n">
-        <v>69.93249999400665</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="J13" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="K13" t="n">
-        <v>44.60440993881291</v>
+        <v>44.60440993881296</v>
       </c>
       <c r="L13" t="n">
         <v>143.7777095003619</v>
@@ -5220,31 +5220,31 @@
         <v>524.8061207307293</v>
       </c>
       <c r="Q13" t="n">
-        <v>479.0684831411655</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R13" t="n">
-        <v>346.54168497684</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S13" t="n">
-        <v>214.0148868125144</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T13" t="n">
-        <v>81.48808864818881</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U13" t="n">
-        <v>81.48808864818881</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V13" t="n">
-        <v>81.48808864818881</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="W13" t="n">
-        <v>81.48808864818881</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="X13" t="n">
-        <v>81.48808864818881</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G14" t="n">
         <v>10.49612241461459</v>
@@ -5284,19 +5284,19 @@
         <v>220.0089273735214</v>
       </c>
       <c r="L14" t="n">
+        <v>220.0089273735214</v>
+      </c>
+      <c r="M14" t="n">
         <v>349.898442254377</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>479.7879571352324</v>
       </c>
-      <c r="N14" t="n">
-        <v>524.8061207307293</v>
-      </c>
       <c r="O14" t="n">
-        <v>524.8061207307293</v>
+        <v>479.7879571352324</v>
       </c>
       <c r="P14" t="n">
-        <v>524.8061207307293</v>
+        <v>479.7879571352324</v>
       </c>
       <c r="Q14" t="n">
         <v>524.8061207307293</v>
@@ -5305,25 +5305,25 @@
         <v>442.4831764132938</v>
       </c>
       <c r="S14" t="n">
+        <v>442.4831764132938</v>
+      </c>
+      <c r="T14" t="n">
         <v>309.9563782489682</v>
       </c>
-      <c r="T14" t="n">
-        <v>177.4295800846427</v>
-      </c>
       <c r="U14" t="n">
-        <v>44.90278192031707</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="V14" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="W14" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="X14" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C15" t="n">
         <v>10.49612241461459</v>
@@ -5357,52 +5357,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J15" t="n">
-        <v>64.22582882795403</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K15" t="n">
-        <v>194.1153437088095</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L15" t="n">
-        <v>324.004858589665</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M15" t="n">
-        <v>453.8943734705205</v>
+        <v>245.1112209220098</v>
       </c>
       <c r="N15" t="n">
-        <v>524.8061207307293</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="O15" t="n">
-        <v>524.8061207307293</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="P15" t="n">
-        <v>524.8061207307293</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q15" t="n">
         <v>524.8061207307293</v>
       </c>
       <c r="R15" t="n">
-        <v>460.1584073784823</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S15" t="n">
-        <v>327.6316092141567</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T15" t="n">
-        <v>195.1048110498311</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U15" t="n">
-        <v>62.57801288550553</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="V15" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W15" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X15" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C16" t="n">
         <v>10.49612241461459</v>
@@ -5439,7 +5439,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K16" t="n">
-        <v>44.60440993881294</v>
+        <v>44.60440993881286</v>
       </c>
       <c r="L16" t="n">
         <v>143.7777095003619</v>
@@ -5460,28 +5460,28 @@
         <v>524.8061207307293</v>
       </c>
       <c r="R16" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S16" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T16" t="n">
-        <v>408.0765169075913</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="U16" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="V16" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W16" t="n">
-        <v>275.5497187432658</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="X16" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="D17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="E17" t="n">
-        <v>408.0765169075913</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F17" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G17" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H17" t="n">
         <v>10.49612241461459</v>
@@ -5515,52 +5515,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J17" t="n">
-        <v>90.11941249266593</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K17" t="n">
-        <v>90.11941249266593</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L17" t="n">
-        <v>90.11941249266593</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M17" t="n">
-        <v>90.11941249266593</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="N17" t="n">
-        <v>158.5579427033262</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="O17" t="n">
-        <v>288.4474575841817</v>
+        <v>400.1646670571811</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3369724650372</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q17" t="n">
         <v>524.8061207307293</v>
       </c>
       <c r="R17" t="n">
-        <v>442.4831764132938</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S17" t="n">
-        <v>408.0765169075913</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="T17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="U17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="V17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y17" t="n">
-        <v>408.0765169075913</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J18" t="n">
-        <v>64.22582882795403</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K18" t="n">
-        <v>194.1153437088095</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L18" t="n">
-        <v>194.1153437088095</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M18" t="n">
-        <v>199.4805673353961</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="N18" t="n">
-        <v>219.3964373824046</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="O18" t="n">
-        <v>265.0270909690183</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P18" t="n">
         <v>394.9166058498738</v>
@@ -5621,16 +5621,16 @@
         <v>460.1584073784823</v>
       </c>
       <c r="S18" t="n">
-        <v>327.6316092141567</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="T18" t="n">
-        <v>195.1048110498311</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="U18" t="n">
-        <v>62.57801288550553</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V18" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W18" t="n">
         <v>10.49612241461459</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>346.54168497684</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C19" t="n">
-        <v>214.0148868125144</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D19" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E19" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F19" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G19" t="n">
         <v>10.49612241461459</v>
@@ -5676,7 +5676,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K19" t="n">
-        <v>44.60440993881286</v>
+        <v>44.60440993881296</v>
       </c>
       <c r="L19" t="n">
         <v>143.7777095003619</v>
@@ -5685,40 +5685,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N19" t="n">
-        <v>376.3859142399438</v>
+        <v>376.3859142399439</v>
       </c>
       <c r="O19" t="n">
-        <v>469.0428162853262</v>
+        <v>469.0428162853264</v>
       </c>
       <c r="P19" t="n">
-        <v>524.8061207307293</v>
+        <v>524.8061207307294</v>
       </c>
       <c r="Q19" t="n">
-        <v>479.0684831411655</v>
+        <v>479.0684831411656</v>
       </c>
       <c r="R19" t="n">
-        <v>479.0684831411655</v>
+        <v>479.0684831411656</v>
       </c>
       <c r="S19" t="n">
-        <v>479.0684831411655</v>
+        <v>479.0684831411656</v>
       </c>
       <c r="T19" t="n">
-        <v>479.0684831411655</v>
+        <v>346.5416849768401</v>
       </c>
       <c r="U19" t="n">
-        <v>479.0684831411655</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V19" t="n">
-        <v>346.54168497684</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W19" t="n">
-        <v>346.54168497684</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="X19" t="n">
-        <v>346.54168497684</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y19" t="n">
-        <v>346.54168497684</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="C20" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="D20" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="E20" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="F20" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="G20" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H20" t="n">
         <v>10.49612241461459</v>
@@ -5755,49 +5755,49 @@
         <v>90.11941249266593</v>
       </c>
       <c r="K20" t="n">
+        <v>90.11941249266593</v>
+      </c>
+      <c r="L20" t="n">
         <v>220.0089273735214</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
+        <v>220.0089273735214</v>
+      </c>
+      <c r="N20" t="n">
+        <v>220.0089273735214</v>
+      </c>
+      <c r="O20" t="n">
         <v>349.898442254377</v>
       </c>
-      <c r="M20" t="n">
-        <v>479.7879571352324</v>
-      </c>
-      <c r="N20" t="n">
-        <v>524.8061207307293</v>
-      </c>
-      <c r="O20" t="n">
-        <v>524.8061207307293</v>
-      </c>
       <c r="P20" t="n">
-        <v>524.8061207307293</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q20" t="n">
         <v>524.8061207307293</v>
       </c>
       <c r="R20" t="n">
-        <v>524.8061207307293</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S20" t="n">
-        <v>392.2793225664037</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="T20" t="n">
-        <v>259.7525244020782</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="U20" t="n">
-        <v>259.7525244020782</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="V20" t="n">
-        <v>259.7525244020782</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="W20" t="n">
-        <v>259.7525244020782</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="X20" t="n">
-        <v>127.2257262377526</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.2257262377526</v>
+        <v>275.5497187432658</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.2257262377526</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C21" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D21" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E21" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F21" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G21" t="n">
         <v>10.49612241461459</v>
@@ -5831,22 +5831,22 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J21" t="n">
-        <v>64.22582882795403</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K21" t="n">
-        <v>64.22582882795403</v>
+        <v>109.8564824145678</v>
       </c>
       <c r="L21" t="n">
-        <v>194.1153437088095</v>
+        <v>109.8564824145678</v>
       </c>
       <c r="M21" t="n">
-        <v>199.4805673353961</v>
+        <v>115.2217060411543</v>
       </c>
       <c r="N21" t="n">
-        <v>329.3700822162516</v>
+        <v>135.1375760881628</v>
       </c>
       <c r="O21" t="n">
-        <v>394.9166058498738</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="P21" t="n">
         <v>394.9166058498738</v>
@@ -5861,22 +5861,22 @@
         <v>524.8061207307293</v>
       </c>
       <c r="T21" t="n">
-        <v>524.8061207307293</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="U21" t="n">
-        <v>524.8061207307293</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="V21" t="n">
-        <v>524.8061207307293</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="W21" t="n">
-        <v>524.8061207307293</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X21" t="n">
-        <v>392.2793225664037</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>259.7525244020783</v>
+        <v>81.48808864818881</v>
       </c>
       <c r="C22" t="n">
-        <v>127.2257262377527</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D22" t="n">
-        <v>127.2257262377527</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E22" t="n">
-        <v>127.2257262377527</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F22" t="n">
         <v>10.49612241461459</v>
@@ -5913,7 +5913,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K22" t="n">
-        <v>44.60440993881296</v>
+        <v>44.60440993881286</v>
       </c>
       <c r="L22" t="n">
         <v>143.7777095003619</v>
@@ -5922,40 +5922,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N22" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O22" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P22" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q22" t="n">
-        <v>524.8061207307294</v>
+        <v>479.0684831411655</v>
       </c>
       <c r="R22" t="n">
-        <v>524.8061207307294</v>
+        <v>346.54168497684</v>
       </c>
       <c r="S22" t="n">
-        <v>392.2793225664038</v>
+        <v>214.0148868125144</v>
       </c>
       <c r="T22" t="n">
-        <v>392.2793225664038</v>
+        <v>214.0148868125144</v>
       </c>
       <c r="U22" t="n">
-        <v>392.2793225664038</v>
+        <v>214.0148868125144</v>
       </c>
       <c r="V22" t="n">
-        <v>392.2793225664038</v>
+        <v>214.0148868125144</v>
       </c>
       <c r="W22" t="n">
-        <v>392.2793225664038</v>
+        <v>214.0148868125144</v>
       </c>
       <c r="X22" t="n">
-        <v>392.2793225664038</v>
+        <v>214.0148868125144</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.2793225664038</v>
+        <v>81.48808864818881</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>412.9612782995069</v>
+        <v>1119.697352532248</v>
       </c>
       <c r="C23" t="n">
-        <v>43.99876135909522</v>
+        <v>1119.697352532248</v>
       </c>
       <c r="D23" t="n">
-        <v>43.99876135909522</v>
+        <v>761.4316539254971</v>
       </c>
       <c r="E23" t="n">
-        <v>43.99876135909522</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="F23" t="n">
-        <v>43.99876135909522</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="G23" t="n">
-        <v>43.99876135909522</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H23" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I23" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J23" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371464</v>
       </c>
       <c r="K23" t="n">
         <v>363.7015273031527</v>
       </c>
       <c r="L23" t="n">
-        <v>713.8179739365963</v>
+        <v>713.8179739365962</v>
       </c>
       <c r="M23" t="n">
         <v>1119.996526506346</v>
@@ -6013,28 +6013,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R23" t="n">
-        <v>2117.615123637325</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S23" t="n">
-        <v>1931.536251638564</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T23" t="n">
-        <v>1710.999519450787</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="U23" t="n">
-        <v>1563.16620860052</v>
+        <v>1879.762950857449</v>
       </c>
       <c r="V23" t="n">
-        <v>1563.16620860052</v>
+        <v>1879.762950857449</v>
       </c>
       <c r="W23" t="n">
-        <v>1563.16620860052</v>
+        <v>1879.762950857449</v>
       </c>
       <c r="X23" t="n">
-        <v>1189.700450339441</v>
+        <v>1506.297192596369</v>
       </c>
       <c r="Y23" t="n">
-        <v>799.5611183636288</v>
+        <v>1506.297192596369</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>471.5819737758528</v>
+        <v>613.2168752763446</v>
       </c>
       <c r="C24" t="n">
-        <v>297.1289444947257</v>
+        <v>438.7638459952175</v>
       </c>
       <c r="D24" t="n">
-        <v>148.1945348334744</v>
+        <v>289.8294363339663</v>
       </c>
       <c r="E24" t="n">
-        <v>114.0457586606907</v>
+        <v>289.8294363339663</v>
       </c>
       <c r="F24" t="n">
-        <v>114.0457586606907</v>
+        <v>289.8294363339663</v>
       </c>
       <c r="G24" t="n">
-        <v>114.0457586606907</v>
+        <v>151.6868402235633</v>
       </c>
       <c r="H24" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I24" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J24" t="n">
-        <v>62.27346334826848</v>
+        <v>97.72846777243467</v>
       </c>
       <c r="K24" t="n">
-        <v>62.27346334826848</v>
+        <v>316.181937089367</v>
       </c>
       <c r="L24" t="n">
-        <v>417.4155079642478</v>
+        <v>671.3239817053463</v>
       </c>
       <c r="M24" t="n">
-        <v>883.8287447033342</v>
+        <v>1137.737218444433</v>
       </c>
       <c r="N24" t="n">
-        <v>1378.293565350461</v>
+        <v>1632.202039091559</v>
       </c>
       <c r="O24" t="n">
-        <v>1764.216596447708</v>
+        <v>2018.125070188807</v>
       </c>
       <c r="P24" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q24" t="n">
         <v>2199.938067954761</v>
@@ -6095,7 +6095,7 @@
         <v>2135.290354602514</v>
       </c>
       <c r="S24" t="n">
-        <v>1972.799111435053</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T24" t="n">
         <v>1772.983493693451</v>
@@ -6104,16 +6104,16 @@
         <v>1544.798574726352</v>
       </c>
       <c r="V24" t="n">
-        <v>1309.646466494609</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W24" t="n">
-        <v>1055.409109766407</v>
+        <v>1197.044011266899</v>
       </c>
       <c r="X24" t="n">
-        <v>847.5576095608747</v>
+        <v>989.1925110613665</v>
       </c>
       <c r="Y24" t="n">
-        <v>639.7973107959208</v>
+        <v>781.4322122964127</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1971.948517056743</v>
+        <v>507.7379853673056</v>
       </c>
       <c r="C25" t="n">
-        <v>1971.948517056743</v>
+        <v>338.8018024393987</v>
       </c>
       <c r="D25" t="n">
-        <v>1971.948517056743</v>
+        <v>338.8018024393987</v>
       </c>
       <c r="E25" t="n">
-        <v>1971.948517056743</v>
+        <v>190.8887088570056</v>
       </c>
       <c r="F25" t="n">
-        <v>1971.948517056743</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G25" t="n">
-        <v>1802.753810809976</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H25" t="n">
-        <v>1802.753810809976</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I25" t="n">
-        <v>1685.628069638646</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J25" t="n">
-        <v>1685.628069638646</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K25" t="n">
-        <v>1719.736357162844</v>
+        <v>78.1070488832936</v>
       </c>
       <c r="L25" t="n">
-        <v>1818.909656724393</v>
+        <v>177.2803484448426</v>
       </c>
       <c r="M25" t="n">
-        <v>1933.863119083901</v>
+        <v>292.2338108043506</v>
       </c>
       <c r="N25" t="n">
-        <v>2051.517861463975</v>
+        <v>409.8885531844245</v>
       </c>
       <c r="O25" t="n">
-        <v>2144.174763509358</v>
+        <v>502.545455229807</v>
       </c>
       <c r="P25" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="Q25" t="n">
-        <v>2199.938067954761</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="R25" t="n">
-        <v>2199.938067954761</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="S25" t="n">
-        <v>2199.938067954761</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="T25" t="n">
-        <v>2199.938067954761</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="U25" t="n">
-        <v>2199.938067954761</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="V25" t="n">
-        <v>2199.938067954761</v>
+        <v>512.5711220856463</v>
       </c>
       <c r="W25" t="n">
-        <v>2199.938067954761</v>
+        <v>507.7379853673056</v>
       </c>
       <c r="X25" t="n">
-        <v>1971.948517056743</v>
+        <v>507.7379853673056</v>
       </c>
       <c r="Y25" t="n">
-        <v>1971.948517056743</v>
+        <v>507.7379853673056</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>583.1786802495313</v>
+        <v>1231.648682316967</v>
       </c>
       <c r="C26" t="n">
-        <v>214.2161633091196</v>
+        <v>1231.648682316967</v>
       </c>
       <c r="D26" t="n">
-        <v>214.2161633091196</v>
+        <v>873.3829837102166</v>
       </c>
       <c r="E26" t="n">
-        <v>214.2161633091196</v>
+        <v>873.3829837102166</v>
       </c>
       <c r="F26" t="n">
-        <v>214.2161633091196</v>
+        <v>462.3970789206091</v>
       </c>
       <c r="G26" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H26" t="n">
-        <v>214.2161633091196</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I26" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J26" t="n">
         <v>123.6220514371466</v>
       </c>
       <c r="K26" t="n">
-        <v>363.7015273031527</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L26" t="n">
-        <v>713.8179739365963</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M26" t="n">
         <v>1119.996526506346</v>
       </c>
       <c r="N26" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O26" t="n">
         <v>1848.86027121381</v>
@@ -6250,28 +6250,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R26" t="n">
-        <v>2117.615123637325</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S26" t="n">
-        <v>1931.536251638564</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T26" t="n">
-        <v>1710.999519450787</v>
+        <v>1974.556669562893</v>
       </c>
       <c r="U26" t="n">
-        <v>1457.202973332102</v>
+        <v>1974.556669562893</v>
       </c>
       <c r="V26" t="n">
-        <v>1346.783770486423</v>
+        <v>1974.556669562893</v>
       </c>
       <c r="W26" t="n">
-        <v>1346.783770486423</v>
+        <v>1621.788014292779</v>
       </c>
       <c r="X26" t="n">
-        <v>973.3180122253431</v>
+        <v>1621.788014292779</v>
       </c>
       <c r="Y26" t="n">
-        <v>583.1786802495313</v>
+        <v>1231.648682316967</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>829.798430551055</v>
+        <v>664.766251417332</v>
       </c>
       <c r="C27" t="n">
-        <v>655.3454012699281</v>
+        <v>490.313222136205</v>
       </c>
       <c r="D27" t="n">
-        <v>506.4109916086768</v>
+        <v>341.3788124749537</v>
       </c>
       <c r="E27" t="n">
-        <v>506.4109916086768</v>
+        <v>182.1413574694982</v>
       </c>
       <c r="F27" t="n">
-        <v>359.8764336355617</v>
+        <v>182.1413574694982</v>
       </c>
       <c r="G27" t="n">
-        <v>221.7338375251587</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H27" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I27" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J27" t="n">
         <v>97.72846777243467</v>
       </c>
       <c r="K27" t="n">
-        <v>316.181937089367</v>
+        <v>316.1819370893671</v>
       </c>
       <c r="L27" t="n">
         <v>671.3239817053463</v>
@@ -6332,25 +6332,25 @@
         <v>2135.290354602514</v>
       </c>
       <c r="S27" t="n">
-        <v>1972.799111435053</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T27" t="n">
         <v>1772.983493693451</v>
       </c>
       <c r="U27" t="n">
-        <v>1544.798574726352</v>
+        <v>1737.982852367831</v>
       </c>
       <c r="V27" t="n">
-        <v>1413.62556654161</v>
+        <v>1502.830744136088</v>
       </c>
       <c r="W27" t="n">
-        <v>1413.62556654161</v>
+        <v>1248.593387407887</v>
       </c>
       <c r="X27" t="n">
-        <v>1205.774066336077</v>
+        <v>1040.741887202354</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.013767571123</v>
+        <v>832.9815884374</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.99876135909522</v>
+        <v>522.5328476616004</v>
       </c>
       <c r="C28" t="n">
-        <v>43.99876135909522</v>
+        <v>353.5966647336935</v>
       </c>
       <c r="D28" t="n">
-        <v>43.99876135909522</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="E28" t="n">
-        <v>43.99876135909522</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="F28" t="n">
-        <v>43.99876135909522</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="G28" t="n">
-        <v>43.99876135909522</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="H28" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I28" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J28" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K28" t="n">
-        <v>78.1070488832936</v>
+        <v>78.10704888329363</v>
       </c>
       <c r="L28" t="n">
         <v>177.2803484448426</v>
       </c>
       <c r="M28" t="n">
-        <v>292.2338108043506</v>
+        <v>292.2338108043507</v>
       </c>
       <c r="N28" t="n">
-        <v>409.8885531844245</v>
+        <v>409.8885531844246</v>
       </c>
       <c r="O28" t="n">
         <v>502.545455229807</v>
@@ -6414,22 +6414,22 @@
         <v>558.30875967521</v>
       </c>
       <c r="T28" t="n">
-        <v>333.1830029400782</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U28" t="n">
-        <v>43.99876135909522</v>
+        <v>558.30875967521</v>
       </c>
       <c r="V28" t="n">
-        <v>43.99876135909522</v>
+        <v>558.30875967521</v>
       </c>
       <c r="W28" t="n">
-        <v>43.99876135909522</v>
+        <v>558.30875967521</v>
       </c>
       <c r="X28" t="n">
-        <v>43.99876135909522</v>
+        <v>558.30875967521</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.99876135909522</v>
+        <v>558.30875967521</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>399.9056724573376</v>
+        <v>744.6059182676646</v>
       </c>
       <c r="C29" t="n">
-        <v>399.9056724573376</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="D29" t="n">
-        <v>399.9056724573376</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="E29" t="n">
-        <v>399.9056724573376</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="F29" t="n">
-        <v>399.9056724573376</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="G29" t="n">
-        <v>399.9056724573376</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H29" t="n">
-        <v>68.26103248917997</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I29" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J29" t="n">
-        <v>123.6220514371464</v>
+        <v>123.6220514371465</v>
       </c>
       <c r="K29" t="n">
-        <v>363.7015273031526</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L29" t="n">
-        <v>713.8179739365962</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M29" t="n">
         <v>1119.996526506346</v>
@@ -6487,28 +6487,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R29" t="n">
-        <v>2117.615123637325</v>
+        <v>2148.607394687363</v>
       </c>
       <c r="S29" t="n">
-        <v>1931.536251638564</v>
+        <v>2148.607394687363</v>
       </c>
       <c r="T29" t="n">
-        <v>1710.999519450787</v>
+        <v>2148.607394687363</v>
       </c>
       <c r="U29" t="n">
-        <v>1457.202973332102</v>
+        <v>1894.810848568678</v>
       </c>
       <c r="V29" t="n">
-        <v>1126.140085988532</v>
+        <v>1894.810848568678</v>
       </c>
       <c r="W29" t="n">
-        <v>773.3714307184175</v>
+        <v>1894.810848568678</v>
       </c>
       <c r="X29" t="n">
-        <v>399.9056724573376</v>
+        <v>1521.345090307598</v>
       </c>
       <c r="Y29" t="n">
-        <v>399.9056724573376</v>
+        <v>1131.205758331786</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>639.7973107959208</v>
+        <v>743.2052105816394</v>
       </c>
       <c r="C30" t="n">
-        <v>639.7973107959208</v>
+        <v>568.7521813005125</v>
       </c>
       <c r="D30" t="n">
-        <v>519.1138886410172</v>
+        <v>419.8177716392612</v>
       </c>
       <c r="E30" t="n">
-        <v>359.8764336355617</v>
+        <v>260.5803166338057</v>
       </c>
       <c r="F30" t="n">
-        <v>359.8764336355617</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="G30" t="n">
-        <v>221.7338375251587</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="H30" t="n">
         <v>114.0457586606907</v>
       </c>
       <c r="I30" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J30" t="n">
         <v>97.72846777243467</v>
       </c>
       <c r="K30" t="n">
-        <v>97.72846777243467</v>
+        <v>316.1819370893671</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8705123884139</v>
+        <v>671.3239817053463</v>
       </c>
       <c r="M30" t="n">
-        <v>919.2837491275004</v>
+        <v>1137.737218444433</v>
       </c>
       <c r="N30" t="n">
-        <v>1413.748569774627</v>
+        <v>1378.293565350461</v>
       </c>
       <c r="O30" t="n">
         <v>1764.216596447708</v>
@@ -6569,25 +6569,25 @@
         <v>2135.290354602514</v>
       </c>
       <c r="S30" t="n">
-        <v>1972.799111435053</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T30" t="n">
-        <v>1772.983493693451</v>
+        <v>1816.421811532138</v>
       </c>
       <c r="U30" t="n">
-        <v>1544.798574726352</v>
+        <v>1816.421811532138</v>
       </c>
       <c r="V30" t="n">
-        <v>1309.646466494609</v>
+        <v>1581.269703300396</v>
       </c>
       <c r="W30" t="n">
-        <v>1055.409109766407</v>
+        <v>1327.032346572194</v>
       </c>
       <c r="X30" t="n">
-        <v>847.5576095608747</v>
+        <v>1119.180846366661</v>
       </c>
       <c r="Y30" t="n">
-        <v>639.7973107959208</v>
+        <v>911.4205476017075</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="D31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="E31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I31" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J31" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K31" t="n">
-        <v>78.1070488832936</v>
+        <v>78.10704888329363</v>
       </c>
       <c r="L31" t="n">
         <v>177.2803484448426</v>
       </c>
       <c r="M31" t="n">
-        <v>292.2338108043506</v>
+        <v>292.2338108043507</v>
       </c>
       <c r="N31" t="n">
-        <v>409.8885531844245</v>
+        <v>409.8885531844246</v>
       </c>
       <c r="O31" t="n">
         <v>502.545455229807</v>
@@ -6645,28 +6645,28 @@
         <v>558.30875967521</v>
       </c>
       <c r="R31" t="n">
-        <v>401.398419270289</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S31" t="n">
-        <v>401.398419270289</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T31" t="n">
-        <v>401.398419270289</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U31" t="n">
-        <v>401.398419270289</v>
+        <v>271.9883122571126</v>
       </c>
       <c r="V31" t="n">
-        <v>146.7139310644021</v>
+        <v>271.9883122571126</v>
       </c>
       <c r="W31" t="n">
-        <v>146.7139310644021</v>
+        <v>271.9883122571126</v>
       </c>
       <c r="X31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.7139310644021</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>614.6415380661979</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="C32" t="n">
-        <v>245.6790211257862</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="D32" t="n">
-        <v>43.99876135909522</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="E32" t="n">
-        <v>43.99876135909522</v>
+        <v>786.6293061168604</v>
       </c>
       <c r="F32" t="n">
-        <v>43.99876135909522</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="G32" t="n">
-        <v>43.99876135909522</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H32" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I32" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J32" t="n">
-        <v>123.622051437146</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K32" t="n">
-        <v>363.7015273031521</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L32" t="n">
-        <v>713.8179739365958</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M32" t="n">
-        <v>1119.996526506345</v>
+        <v>1119.996526506346</v>
       </c>
       <c r="N32" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O32" t="n">
-        <v>1848.860271213809</v>
+        <v>1848.86027121381</v>
       </c>
       <c r="P32" t="n">
         <v>2093.468919689069</v>
@@ -6724,28 +6724,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R32" t="n">
-        <v>2117.615123637325</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S32" t="n">
-        <v>2117.615123637325</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T32" t="n">
-        <v>2117.615123637325</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="U32" t="n">
-        <v>2117.615123637325</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="V32" t="n">
-        <v>2117.615123637325</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="W32" t="n">
-        <v>1764.846468367211</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="X32" t="n">
-        <v>1391.380710106131</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="Y32" t="n">
-        <v>1001.24137813032</v>
+        <v>1559.017398779226</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>833.8888346849155</v>
+        <v>673.158213280044</v>
       </c>
       <c r="C33" t="n">
-        <v>659.4358054037885</v>
+        <v>498.7051839989171</v>
       </c>
       <c r="D33" t="n">
-        <v>557.9603677496642</v>
+        <v>349.7707743376658</v>
       </c>
       <c r="E33" t="n">
-        <v>398.7229127442087</v>
+        <v>190.5333193322103</v>
       </c>
       <c r="F33" t="n">
-        <v>252.1883547710937</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G33" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H33" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I33" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J33" t="n">
-        <v>43.99876135909522</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K33" t="n">
-        <v>262.4522306760276</v>
+        <v>62.27346334826848</v>
       </c>
       <c r="L33" t="n">
         <v>417.4155079642478</v>
@@ -6806,25 +6806,25 @@
         <v>2135.290354602514</v>
       </c>
       <c r="S33" t="n">
-        <v>2135.290354602514</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T33" t="n">
-        <v>2135.290354602514</v>
+        <v>1772.983493693451</v>
       </c>
       <c r="U33" t="n">
-        <v>1907.105435635415</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V33" t="n">
-        <v>1671.953327403672</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W33" t="n">
-        <v>1417.71597067547</v>
+        <v>1055.409109766408</v>
       </c>
       <c r="X33" t="n">
-        <v>1209.864470469937</v>
+        <v>847.5576095608751</v>
       </c>
       <c r="Y33" t="n">
-        <v>1002.104171704984</v>
+        <v>841.3735503001121</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1685.628069638646</v>
+        <v>558.30875967521</v>
       </c>
       <c r="C34" t="n">
-        <v>1685.628069638646</v>
+        <v>389.3725767473031</v>
       </c>
       <c r="D34" t="n">
-        <v>1685.628069638646</v>
+        <v>389.3725767473031</v>
       </c>
       <c r="E34" t="n">
-        <v>1685.628069638646</v>
+        <v>355.3837330409299</v>
       </c>
       <c r="F34" t="n">
-        <v>1685.628069638646</v>
+        <v>355.3837330409299</v>
       </c>
       <c r="G34" t="n">
-        <v>1685.628069638646</v>
+        <v>186.189026794163</v>
       </c>
       <c r="H34" t="n">
-        <v>1685.628069638646</v>
+        <v>186.189026794163</v>
       </c>
       <c r="I34" t="n">
-        <v>1685.628069638646</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J34" t="n">
-        <v>1685.628069638646</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K34" t="n">
-        <v>1719.736357162844</v>
+        <v>78.10704888329363</v>
       </c>
       <c r="L34" t="n">
-        <v>1818.909656724393</v>
+        <v>177.2803484448426</v>
       </c>
       <c r="M34" t="n">
-        <v>1933.863119083901</v>
+        <v>292.2338108043507</v>
       </c>
       <c r="N34" t="n">
-        <v>2051.517861463975</v>
+        <v>409.8885531844246</v>
       </c>
       <c r="O34" t="n">
-        <v>2144.174763509358</v>
+        <v>502.545455229807</v>
       </c>
       <c r="P34" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="Q34" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="R34" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S34" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T34" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U34" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="V34" t="n">
-        <v>2199.938067954761</v>
+        <v>558.30875967521</v>
       </c>
       <c r="W34" t="n">
-        <v>1913.617620536663</v>
+        <v>558.30875967521</v>
       </c>
       <c r="X34" t="n">
-        <v>1685.628069638646</v>
+        <v>558.30875967521</v>
       </c>
       <c r="Y34" t="n">
-        <v>1685.628069638646</v>
+        <v>558.30875967521</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.50263894448063</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="C35" t="n">
-        <v>33.50263894448063</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="D35" t="n">
-        <v>33.50263894448063</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="E35" t="n">
-        <v>33.50263894448063</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="F35" t="n">
-        <v>33.50263894448063</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="G35" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H35" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I35" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J35" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K35" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="L35" t="n">
-        <v>383.6190855779242</v>
+        <v>383.6190855779243</v>
       </c>
       <c r="M35" t="n">
-        <v>789.7976381476735</v>
+        <v>789.7976381476738</v>
       </c>
       <c r="N35" t="n">
-        <v>1187.916586798791</v>
+        <v>993.3093544267341</v>
       </c>
       <c r="O35" t="n">
-        <v>1518.661382855138</v>
+        <v>1324.054150483081</v>
       </c>
       <c r="P35" t="n">
-        <v>1675.131947224032</v>
+        <v>1568.66279895834</v>
       </c>
       <c r="Q35" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R35" t="n">
-        <v>1602.503894831405</v>
+        <v>1626.491951532494</v>
       </c>
       <c r="S35" t="n">
-        <v>1602.503894831405</v>
+        <v>1626.491951532494</v>
       </c>
       <c r="T35" t="n">
-        <v>1381.967162643627</v>
+        <v>1626.491951532494</v>
       </c>
       <c r="U35" t="n">
-        <v>1128.170616524943</v>
+        <v>1626.491951532494</v>
       </c>
       <c r="V35" t="n">
-        <v>797.1077291813722</v>
+        <v>1626.491951532494</v>
       </c>
       <c r="W35" t="n">
-        <v>797.1077291813722</v>
+        <v>1626.491951532494</v>
       </c>
       <c r="X35" t="n">
-        <v>423.6419709202924</v>
+        <v>1253.026193271414</v>
       </c>
       <c r="Y35" t="n">
-        <v>33.50263894448063</v>
+        <v>862.8868612956021</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33.50263894448063</v>
+        <v>367.1931232310632</v>
       </c>
       <c r="C36" t="n">
-        <v>33.50263894448063</v>
+        <v>192.7400939499362</v>
       </c>
       <c r="D36" t="n">
-        <v>33.50263894448063</v>
+        <v>192.7400939499362</v>
       </c>
       <c r="E36" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F36" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G36" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H36" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I36" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J36" t="n">
-        <v>87.23234535782007</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K36" t="n">
-        <v>87.23234535782007</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="L36" t="n">
-        <v>442.3743899737993</v>
+        <v>660.8278592907318</v>
       </c>
       <c r="M36" t="n">
-        <v>856.9695469117471</v>
+        <v>1075.42301622868</v>
       </c>
       <c r="N36" t="n">
-        <v>1146.221632973297</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="O36" t="n">
-        <v>1532.144664070544</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="P36" t="n">
-        <v>1532.144664070544</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q36" t="n">
         <v>1675.131947224032</v>
@@ -7043,25 +7043,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S36" t="n">
-        <v>1534.719776603681</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="T36" t="n">
-        <v>1334.904158862079</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="U36" t="n">
-        <v>1106.71923989498</v>
+        <v>1084.64016734787</v>
       </c>
       <c r="V36" t="n">
-        <v>871.567131663237</v>
+        <v>1084.64016734787</v>
       </c>
       <c r="W36" t="n">
-        <v>617.3297749350354</v>
+        <v>830.4028106196686</v>
       </c>
       <c r="X36" t="n">
-        <v>409.4782747295026</v>
+        <v>622.5513104141357</v>
       </c>
       <c r="Y36" t="n">
-        <v>201.7179759645487</v>
+        <v>414.7910116491818</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.5554612847233</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C37" t="n">
-        <v>183.6192783568164</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D37" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E37" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F37" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G37" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H37" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I37" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J37" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K37" t="n">
-        <v>67.61092646867901</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L37" t="n">
         <v>166.784226030228</v>
       </c>
       <c r="M37" t="n">
-        <v>281.737688389736</v>
+        <v>281.7376883897361</v>
       </c>
       <c r="N37" t="n">
-        <v>399.3924307698098</v>
+        <v>399.3924307698099</v>
       </c>
       <c r="O37" t="n">
-        <v>492.0493328151923</v>
+        <v>492.0493328151924</v>
       </c>
       <c r="P37" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="Q37" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="R37" t="n">
-        <v>547.8126372605954</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="S37" t="n">
-        <v>547.8126372605954</v>
+        <v>261.492189842498</v>
       </c>
       <c r="T37" t="n">
-        <v>547.8126372605954</v>
+        <v>261.492189842498</v>
       </c>
       <c r="U37" t="n">
-        <v>547.8126372605954</v>
+        <v>261.492189842498</v>
       </c>
       <c r="V37" t="n">
-        <v>547.8126372605954</v>
+        <v>261.492189842498</v>
       </c>
       <c r="W37" t="n">
-        <v>547.8126372605954</v>
+        <v>261.492189842498</v>
       </c>
       <c r="X37" t="n">
-        <v>547.8126372605954</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="Y37" t="n">
-        <v>352.5554612847233</v>
+        <v>33.50263894448064</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1675.131947224032</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="C38" t="n">
-        <v>1675.131947224032</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="D38" t="n">
-        <v>1675.131947224032</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="E38" t="n">
-        <v>1289.343694625787</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="F38" t="n">
-        <v>878.3577898361798</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="G38" t="n">
-        <v>459.9594722746659</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H38" t="n">
-        <v>128.3148323065082</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I38" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J38" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K38" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="L38" t="n">
-        <v>383.6190855779242</v>
+        <v>383.6190855779243</v>
       </c>
       <c r="M38" t="n">
-        <v>701.6595540413082</v>
+        <v>789.7976381476738</v>
       </c>
       <c r="N38" t="n">
         <v>1099.778502692426</v>
@@ -7198,28 +7198,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="T38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="U38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="V38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="W38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="X38" t="n">
-        <v>1675.131947224032</v>
+        <v>1228.640128545928</v>
       </c>
       <c r="Y38" t="n">
-        <v>1675.131947224032</v>
+        <v>838.5007965701163</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>367.1931232310632</v>
+        <v>252.4840459073274</v>
       </c>
       <c r="C39" t="n">
-        <v>192.7400939499361</v>
+        <v>252.4840459073274</v>
       </c>
       <c r="D39" t="n">
-        <v>192.7400939499361</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="E39" t="n">
-        <v>33.50263894448063</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="F39" t="n">
-        <v>33.50263894448063</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="G39" t="n">
-        <v>33.50263894448063</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="H39" t="n">
-        <v>33.50263894448063</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="I39" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J39" t="n">
-        <v>33.50263894448063</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K39" t="n">
-        <v>251.956108261413</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="L39" t="n">
-        <v>607.0981528773923</v>
+        <v>167.2844138973234</v>
       </c>
       <c r="M39" t="n">
-        <v>833.5715745727229</v>
+        <v>581.8795708352714</v>
       </c>
       <c r="N39" t="n">
-        <v>853.4874446197314</v>
+        <v>996.4747277732192</v>
       </c>
       <c r="O39" t="n">
-        <v>1239.410475716979</v>
+        <v>1382.397758870467</v>
       </c>
       <c r="P39" t="n">
-        <v>1532.144664070544</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q39" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R39" t="n">
-        <v>1668.594643148661</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S39" t="n">
-        <v>1668.594643148661</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="T39" t="n">
-        <v>1668.594643148661</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="U39" t="n">
-        <v>1440.409724181562</v>
+        <v>1284.455785089473</v>
       </c>
       <c r="V39" t="n">
-        <v>1205.257615949819</v>
+        <v>1049.30367685773</v>
       </c>
       <c r="W39" t="n">
-        <v>951.0202592216178</v>
+        <v>795.0663201295283</v>
       </c>
       <c r="X39" t="n">
-        <v>743.168759016085</v>
+        <v>587.2148199239955</v>
       </c>
       <c r="Y39" t="n">
-        <v>535.4084602511311</v>
+        <v>379.4545211590416</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K40" t="n">
-        <v>1194.930236432115</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L40" t="n">
-        <v>1294.103535993664</v>
+        <v>166.784226030228</v>
       </c>
       <c r="M40" t="n">
-        <v>1409.056998353172</v>
+        <v>281.7376883897361</v>
       </c>
       <c r="N40" t="n">
-        <v>1526.711740733246</v>
+        <v>399.3924307698099</v>
       </c>
       <c r="O40" t="n">
-        <v>1619.368642778629</v>
+        <v>492.0493328151924</v>
       </c>
       <c r="P40" t="n">
-        <v>1675.131947224032</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="Q40" t="n">
-        <v>1675.131947224032</v>
+        <v>502.0749996710317</v>
       </c>
       <c r="R40" t="n">
-        <v>1606.648019297809</v>
+        <v>502.0749996710317</v>
       </c>
       <c r="S40" t="n">
-        <v>1388.962916357467</v>
+        <v>284.3898967306898</v>
       </c>
       <c r="T40" t="n">
-        <v>1160.821948907917</v>
+        <v>284.3898967306898</v>
       </c>
       <c r="U40" t="n">
-        <v>1160.821948907917</v>
+        <v>284.3898967306898</v>
       </c>
       <c r="V40" t="n">
-        <v>1160.821948907917</v>
+        <v>284.3898967306898</v>
       </c>
       <c r="W40" t="n">
-        <v>1160.821948907917</v>
+        <v>284.3898967306898</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.821948907917</v>
+        <v>254.2952180880108</v>
       </c>
       <c r="Y40" t="n">
-        <v>1160.821948907917</v>
+        <v>33.50263894448064</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.1583616529041</v>
+        <v>392.8679864639493</v>
       </c>
       <c r="C41" t="n">
-        <v>172.1583616529041</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D41" t="n">
-        <v>172.1583616529041</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E41" t="n">
-        <v>172.1583616529041</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F41" t="n">
-        <v>172.1583616529041</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G41" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H41" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I41" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J41" t="n">
-        <v>113.125929022532</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K41" t="n">
-        <v>113.125929022532</v>
+        <v>189.9732033133744</v>
       </c>
       <c r="L41" t="n">
-        <v>463.2423756559756</v>
+        <v>540.0896499468181</v>
       </c>
       <c r="M41" t="n">
-        <v>869.420928225725</v>
+        <v>946.2682025165675</v>
       </c>
       <c r="N41" t="n">
-        <v>1267.539876876843</v>
+        <v>1344.387151167685</v>
       </c>
       <c r="O41" t="n">
-        <v>1598.284672933189</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="P41" t="n">
-        <v>1598.284672933189</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q41" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R41" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S41" t="n">
-        <v>1675.131947224032</v>
+        <v>1406.730130907835</v>
       </c>
       <c r="T41" t="n">
-        <v>1675.131947224032</v>
+        <v>1406.730130907835</v>
       </c>
       <c r="U41" t="n">
-        <v>1675.131947224032</v>
+        <v>1152.933584789151</v>
       </c>
       <c r="V41" t="n">
-        <v>1675.131947224032</v>
+        <v>1152.933584789151</v>
       </c>
       <c r="W41" t="n">
-        <v>1322.363291953917</v>
+        <v>1152.933584789151</v>
       </c>
       <c r="X41" t="n">
-        <v>948.8975336928377</v>
+        <v>779.4678265280711</v>
       </c>
       <c r="Y41" t="n">
-        <v>558.7582017170259</v>
+        <v>779.4678265280711</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>328.9716065788469</v>
+        <v>379.4545211590416</v>
       </c>
       <c r="C42" t="n">
-        <v>328.9716065788469</v>
+        <v>330.8826900603392</v>
       </c>
       <c r="D42" t="n">
-        <v>180.0371969175957</v>
+        <v>330.8826900603392</v>
       </c>
       <c r="E42" t="n">
-        <v>180.0371969175957</v>
+        <v>171.6452350548837</v>
       </c>
       <c r="F42" t="n">
-        <v>33.50263894448063</v>
+        <v>171.6452350548837</v>
       </c>
       <c r="G42" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H42" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I42" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J42" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K42" t="n">
-        <v>33.50263894448063</v>
+        <v>251.9561082614131</v>
       </c>
       <c r="L42" t="n">
-        <v>33.50263894448063</v>
+        <v>607.0981528773923</v>
       </c>
       <c r="M42" t="n">
-        <v>438.8922876817836</v>
+        <v>612.4633765039789</v>
       </c>
       <c r="N42" t="n">
-        <v>853.4874446197314</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O42" t="n">
         <v>1239.410475716979</v>
       </c>
       <c r="P42" t="n">
-        <v>1532.144664070544</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q42" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R42" t="n">
-        <v>1610.484233871784</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="S42" t="n">
-        <v>1462.157789476377</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="T42" t="n">
-        <v>1462.157789476377</v>
+        <v>1512.640704056572</v>
       </c>
       <c r="U42" t="n">
-        <v>1233.972870509278</v>
+        <v>1284.455785089473</v>
       </c>
       <c r="V42" t="n">
-        <v>998.8207622775353</v>
+        <v>1049.30367685773</v>
       </c>
       <c r="W42" t="n">
-        <v>744.5834055493337</v>
+        <v>795.0663201295283</v>
       </c>
       <c r="X42" t="n">
-        <v>536.7319053438009</v>
+        <v>587.2148199239955</v>
       </c>
       <c r="Y42" t="n">
-        <v>328.9716065788469</v>
+        <v>379.4545211590416</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K43" t="n">
-        <v>67.61092646867901</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L43" t="n">
         <v>166.784226030228</v>
       </c>
       <c r="M43" t="n">
-        <v>281.737688389736</v>
+        <v>281.7376883897361</v>
       </c>
       <c r="N43" t="n">
-        <v>399.3924307698098</v>
+        <v>399.3924307698099</v>
       </c>
       <c r="O43" t="n">
-        <v>492.0493328151923</v>
+        <v>492.0493328151924</v>
       </c>
       <c r="P43" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="Q43" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="R43" t="n">
-        <v>547.8126372605954</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="S43" t="n">
-        <v>547.8126372605954</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="T43" t="n">
-        <v>319.6716698110451</v>
+        <v>162.7613294061242</v>
       </c>
       <c r="U43" t="n">
-        <v>33.50263894448063</v>
+        <v>162.7613294061242</v>
       </c>
       <c r="V43" t="n">
-        <v>33.50263894448063</v>
+        <v>162.7613294061242</v>
       </c>
       <c r="W43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="X43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.50263894448063</v>
+        <v>799.5935586559365</v>
       </c>
       <c r="C44" t="n">
-        <v>33.50263894448063</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="D44" t="n">
-        <v>33.50263894448063</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="E44" t="n">
-        <v>33.50263894448063</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="F44" t="n">
-        <v>33.50263894448063</v>
+        <v>783.5455964741523</v>
       </c>
       <c r="G44" t="n">
-        <v>33.50263894448063</v>
+        <v>365.1472789126383</v>
       </c>
       <c r="H44" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I44" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J44" t="n">
         <v>113.125929022532</v>
       </c>
       <c r="K44" t="n">
-        <v>113.125929022532</v>
+        <v>353.2054048885382</v>
       </c>
       <c r="L44" t="n">
-        <v>463.2423756559756</v>
+        <v>703.3218515219819</v>
       </c>
       <c r="M44" t="n">
-        <v>869.420928225725</v>
+        <v>1109.500404091731</v>
       </c>
       <c r="N44" t="n">
-        <v>1267.539876876843</v>
+        <v>1507.619352742849</v>
       </c>
       <c r="O44" t="n">
-        <v>1324.054150483081</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="P44" t="n">
-        <v>1568.66279895834</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="Q44" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R44" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S44" t="n">
-        <v>1675.131947224032</v>
+        <v>1406.730130907835</v>
       </c>
       <c r="T44" t="n">
-        <v>1675.131947224032</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="U44" t="n">
-        <v>1675.131947224032</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="V44" t="n">
-        <v>1536.476224515608</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="W44" t="n">
-        <v>1183.707569245494</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="X44" t="n">
-        <v>810.2418109844141</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="Y44" t="n">
-        <v>420.1024790086024</v>
+        <v>1186.193398720058</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>508.6177662264026</v>
+        <v>785.1337550221751</v>
       </c>
       <c r="C45" t="n">
-        <v>508.6177662264026</v>
+        <v>626.3516576947054</v>
       </c>
       <c r="D45" t="n">
-        <v>508.6177662264026</v>
+        <v>477.4172480334542</v>
       </c>
       <c r="E45" t="n">
-        <v>349.3803112209471</v>
+        <v>318.1797930279987</v>
       </c>
       <c r="F45" t="n">
-        <v>349.3803112209471</v>
+        <v>171.6452350548837</v>
       </c>
       <c r="G45" t="n">
-        <v>211.2377151105441</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5496362460761</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I45" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J45" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K45" t="n">
-        <v>251.956108261413</v>
+        <v>251.9561082614131</v>
       </c>
       <c r="L45" t="n">
         <v>607.0981528773923</v>
       </c>
       <c r="M45" t="n">
-        <v>612.4633765039788</v>
+        <v>1021.69330981534</v>
       </c>
       <c r="N45" t="n">
-        <v>1027.058533441927</v>
+        <v>1041.609179862349</v>
       </c>
       <c r="O45" t="n">
-        <v>1412.981564539174</v>
+        <v>1427.532210959596</v>
       </c>
       <c r="P45" t="n">
-        <v>1675.131947224032</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q45" t="n">
         <v>1675.131947224032</v>
@@ -7757,22 +7757,22 @@
         <v>1675.131947224032</v>
       </c>
       <c r="T45" t="n">
-        <v>1675.131947224032</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="U45" t="n">
-        <v>1446.947028256933</v>
+        <v>1247.131410515331</v>
       </c>
       <c r="V45" t="n">
-        <v>1211.79492002519</v>
+        <v>1247.131410515331</v>
       </c>
       <c r="W45" t="n">
-        <v>957.5575632969883</v>
+        <v>992.894053787129</v>
       </c>
       <c r="X45" t="n">
-        <v>749.7060630914555</v>
+        <v>992.894053787129</v>
       </c>
       <c r="Y45" t="n">
-        <v>541.9457643265016</v>
+        <v>785.1337550221751</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.50263894448063</v>
+        <v>180.392586442391</v>
       </c>
       <c r="C46" t="n">
-        <v>33.50263894448063</v>
+        <v>180.392586442391</v>
       </c>
       <c r="D46" t="n">
-        <v>33.50263894448063</v>
+        <v>180.392586442391</v>
       </c>
       <c r="E46" t="n">
-        <v>33.50263894448063</v>
+        <v>180.392586442391</v>
       </c>
       <c r="F46" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G46" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H46" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I46" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="J46" t="n">
-        <v>33.50263894448063</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K46" t="n">
-        <v>67.61092646867901</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L46" t="n">
         <v>166.784226030228</v>
       </c>
       <c r="M46" t="n">
-        <v>281.737688389736</v>
+        <v>281.7376883897361</v>
       </c>
       <c r="N46" t="n">
-        <v>399.3924307698098</v>
+        <v>399.3924307698099</v>
       </c>
       <c r="O46" t="n">
-        <v>492.0493328151923</v>
+        <v>492.0493328151924</v>
       </c>
       <c r="P46" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="Q46" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="R46" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="S46" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T46" t="n">
-        <v>547.8126372605954</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="U46" t="n">
-        <v>322.9198089814412</v>
+        <v>258.6283956796125</v>
       </c>
       <c r="V46" t="n">
-        <v>322.9198089814412</v>
+        <v>258.6283956796125</v>
       </c>
       <c r="W46" t="n">
-        <v>33.50263894448063</v>
+        <v>258.6283956796125</v>
       </c>
       <c r="X46" t="n">
-        <v>33.50263894448063</v>
+        <v>180.392586442391</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.50263894448063</v>
+        <v>180.392586442391</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>212.8424216770731</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L11" t="n">
         <v>195.209768335715</v>
@@ -8701,16 +8701,16 @@
         <v>170.4336974434447</v>
       </c>
       <c r="N11" t="n">
-        <v>80.67946475984189</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O11" t="n">
-        <v>46.7145286805771</v>
+        <v>115.8443571761935</v>
       </c>
       <c r="P11" t="n">
         <v>74.71926526718062</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K12" t="n">
-        <v>175.0066971781575</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L12" t="n">
-        <v>58.20257658692839</v>
+        <v>12.11100730752055</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>120.4810404514765</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>111.0844897311586</v>
       </c>
       <c r="O12" t="n">
         <v>135.2426059268385</v>
@@ -8859,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8932,13 +8932,13 @@
         <v>212.8424216770731</v>
       </c>
       <c r="L14" t="n">
-        <v>195.209768335715</v>
+        <v>64.00823815303264</v>
       </c>
       <c r="M14" t="n">
         <v>170.4336974434447</v>
       </c>
       <c r="N14" t="n">
-        <v>80.67946475984189</v>
+        <v>166.4081024218203</v>
       </c>
       <c r="O14" t="n">
         <v>46.7145286805771</v>
@@ -8947,7 +8947,7 @@
         <v>74.71926526718062</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.7703964521349</v>
+        <v>150.2432889728388</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K15" t="n">
-        <v>175.0066971781575</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L15" t="n">
         <v>143.3125374902029</v>
       </c>
       <c r="M15" t="n">
-        <v>125.7821123780494</v>
+        <v>100.3639999999527</v>
       </c>
       <c r="N15" t="n">
-        <v>51.51098708404072</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>4.041075744156245</v>
       </c>
       <c r="P15" t="n">
-        <v>22.77166929290145</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.64568859091233</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K17" t="n">
         <v>81.64089149439081</v>
       </c>
       <c r="L17" t="n">
-        <v>64.00823815303264</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M17" t="n">
         <v>39.23216726076242</v>
       </c>
       <c r="N17" t="n">
-        <v>104.3364007347545</v>
+        <v>166.4081024218203</v>
       </c>
       <c r="O17" t="n">
         <v>177.9160588632594</v>
       </c>
       <c r="P17" t="n">
-        <v>205.920795449863</v>
+        <v>200.6197235232899</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K18" t="n">
-        <v>175.0066971781575</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L18" t="n">
-        <v>12.11100730752055</v>
+        <v>143.3125374902029</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>120.4810404514765</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>111.0844897311586</v>
       </c>
       <c r="O18" t="n">
-        <v>50.13264502356409</v>
+        <v>4.041075744156245</v>
       </c>
       <c r="P18" t="n">
-        <v>153.9731994755837</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q18" t="n">
         <v>196.8472187735947</v>
@@ -9403,25 +9403,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>212.8424216770731</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L20" t="n">
         <v>195.209768335715</v>
       </c>
       <c r="M20" t="n">
-        <v>170.4336974434447</v>
+        <v>39.23216726076242</v>
       </c>
       <c r="N20" t="n">
-        <v>80.67946475984189</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O20" t="n">
-        <v>46.7145286805771</v>
+        <v>177.9160588632594</v>
       </c>
       <c r="P20" t="n">
-        <v>74.71926526718062</v>
+        <v>143.849093762797</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K21" t="n">
-        <v>43.80516699547518</v>
+        <v>144.1691669954279</v>
       </c>
       <c r="L21" t="n">
-        <v>143.3125374902029</v>
+        <v>12.11100730752055</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>111.0844897311586</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>70.24968547508776</v>
+        <v>135.2426059268385</v>
       </c>
       <c r="P21" t="n">
-        <v>22.77166929290145</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q21" t="n">
         <v>196.8472187735947</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>90.2778995584228</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>43.80516699547518</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>206.4211619857846</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091233</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>43.80516699547518</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,10 +10202,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>222.8691685444641</v>
       </c>
       <c r="O30" t="n">
-        <v>358.0491834947435</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,10 +10430,10 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>62.26446193403399</v>
       </c>
       <c r="L33" t="n">
-        <v>168.6395702249147</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.66904943666837</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K35" t="n">
-        <v>81.64089149439081</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10597,16 +10597,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>240.773962420007</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>232.7703403872753</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>43.80516699547518</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>413.363569001375</v>
+        <v>413.3635690013751</v>
       </c>
       <c r="N36" t="n">
-        <v>272.0567838530718</v>
+        <v>145.5268580215062</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>4.041075744156217</v>
       </c>
       <c r="P36" t="n">
-        <v>22.77166929290145</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>88.66904943666837</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K38" t="n">
-        <v>81.64089149439081</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>360.485165708625</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>348.3185566277767</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>43.80516699547515</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>92.97168259994812</v>
       </c>
       <c r="M39" t="n">
-        <v>223.3416142108526</v>
+        <v>413.363569001375</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>398.6659463544842</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K41" t="n">
-        <v>81.64089149439081</v>
+        <v>239.6919666144855</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11077,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>74.71926526718062</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q41" t="n">
-        <v>182.3939058368241</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,16 +11141,16 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K42" t="n">
-        <v>43.80516699547518</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>12.11100730752055</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>404.0650758694105</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>398.6659463544842</v>
+        <v>223.3416142108529</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>81.64089149439081</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,13 +11311,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>103.7996535353628</v>
+        <v>215.9191695706609</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>413.3635690013751</v>
       </c>
       <c r="N45" t="n">
-        <v>398.6659463544842</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>287.5700356412423</v>
+        <v>128.4408138494149</v>
       </c>
       <c r="Q45" t="n">
-        <v>65.64568859091233</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>320.6204487100375</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H11" t="n">
-        <v>197.1266633857938</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I11" t="n">
-        <v>37.31369774784181</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>150.1554903681281</v>
+        <v>53.01655309609123</v>
       </c>
       <c r="T11" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2585806574976</v>
+        <v>120.0570504748153</v>
       </c>
       <c r="V11" t="n">
-        <v>196.5507282874526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>35.33165346718502</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>26.44355027271862</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>129.9562938048374</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S12" t="n">
         <v>29.66480055310345</v>
       </c>
       <c r="T12" t="n">
-        <v>197.8174615641865</v>
+        <v>66.61593138150414</v>
       </c>
       <c r="U12" t="n">
         <v>225.903069777428</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>90.12038799239774</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>29.85874023802462</v>
       </c>
       <c r="G13" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H13" t="n">
-        <v>157.8864513226399</v>
+        <v>26.68492113995759</v>
       </c>
       <c r="I13" t="n">
-        <v>129.3283300130767</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R13" t="n">
-        <v>24.13970681818947</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S13" t="n">
-        <v>84.30672172825624</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T13" t="n">
-        <v>94.65802759237235</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U13" t="n">
         <v>286.2923991651731</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>94.50812520635483</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>87.38312316941247</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H14" t="n">
         <v>328.3281935684761</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>53.01655309609123</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T14" t="n">
         <v>87.12983468321721</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0570504748153</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V14" t="n">
         <v>293.6896655594895</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>255.0364084733713</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>41.50696880563342</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S15" t="n">
-        <v>29.66480055310345</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T15" t="n">
-        <v>66.61593138150414</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U15" t="n">
         <v>94.70153959474567</v>
       </c>
       <c r="V15" t="n">
-        <v>181.2395155832432</v>
+        <v>101.5990569667429</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>136.132675376013</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>51.68451331372123</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,16 +23700,16 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R16" t="n">
-        <v>39.77892921596522</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S16" t="n">
         <v>215.5082519109386</v>
       </c>
       <c r="T16" t="n">
-        <v>225.8595577750547</v>
+        <v>94.65802759237235</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2923991651731</v>
+        <v>155.0908689824908</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>155.3214681539087</v>
       </c>
       <c r="X16" t="n">
-        <v>94.50812520635483</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.38312316941247</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>266.3680622873551</v>
       </c>
       <c r="F17" t="n">
-        <v>275.6745155590291</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>283.0128042032164</v>
       </c>
       <c r="H17" t="n">
-        <v>197.1266633857938</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I17" t="n">
         <v>168.5152279305241</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S17" t="n">
-        <v>150.1554903681281</v>
+        <v>53.01655309609123</v>
       </c>
       <c r="T17" t="n">
-        <v>218.3313648658995</v>
+        <v>87.12983468321721</v>
       </c>
       <c r="U17" t="n">
         <v>251.2585806574976</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>29.66480055310345</v>
+        <v>109.3052591696037</v>
       </c>
       <c r="T18" t="n">
-        <v>66.61593138150414</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U18" t="n">
         <v>94.70153959474567</v>
       </c>
       <c r="V18" t="n">
-        <v>181.2395155832432</v>
+        <v>101.5990569667429</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>36.04529091594551</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>17.41394283553004</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>97.22071261306083</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H19" t="n">
         <v>157.8864513226399</v>
@@ -23943,16 +23943,16 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T19" t="n">
-        <v>225.8595577750547</v>
+        <v>94.65802759237235</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2923991651731</v>
+        <v>216.0103525939345</v>
       </c>
       <c r="V19" t="n">
         <v>120.9361131411457</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>155.3214681539087</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>267.171533878574</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H20" t="n">
-        <v>328.3281935684761</v>
+        <v>197.1266633857938</v>
       </c>
       <c r="I20" t="n">
         <v>168.5152279305241</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>53.01655309609123</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T20" t="n">
-        <v>87.12983468321721</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U20" t="n">
         <v>251.2585806574976</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>315.1783758067675</v>
       </c>
       <c r="X20" t="n">
         <v>238.5295704957867</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35.33165346718502</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>41.50696880563342</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>21.19886236439237</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H21" t="n">
         <v>106.6111980758233</v>
@@ -24101,7 +24101,7 @@
         <v>160.8663307357858</v>
       </c>
       <c r="T21" t="n">
-        <v>197.8174615641865</v>
+        <v>66.61593138150414</v>
       </c>
       <c r="U21" t="n">
         <v>225.903069777428</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X21" t="n">
-        <v>74.57145502079516</v>
+        <v>90.21067741857085</v>
       </c>
       <c r="Y21" t="n">
-        <v>74.48116559462204</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.63044999925498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>36.04529091594551</v>
+        <v>96.96477452738937</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.85874023802452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.5027591842993</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>155.3412370008718</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S22" t="n">
         <v>84.30672172825624</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>87.38312316941247</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,7 +24223,7 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H23" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>168.5152279305241</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U23" t="n">
-        <v>104.9036029157337</v>
+        <v>15.78492960541979</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24293,19 +24293,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>123.837792044345</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>140.2185524854866</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H25" t="n">
         <v>157.8864513226399</v>
       </c>
       <c r="I25" t="n">
-        <v>24.81387902109994</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J25" t="n">
         <v>58.84201380359814</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>155.3412370008718</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>281.7381929854337</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>328.3281935684761</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>76.70349533221108</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V26" t="n">
-        <v>218.4372476529123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>191.2524348650639</v>
       </c>
       <c r="V27" t="n">
-        <v>102.9393090465307</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>144.4138272884638</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,13 +24618,13 @@
         <v>167.5027591842993</v>
       </c>
       <c r="H28" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>140.7683627807171</v>
       </c>
       <c r="J28" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T28" t="n">
-        <v>2.985058607274141</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>144.4955795117402</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>30.6823483395364</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>27.96847763128419</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>43.00393466030044</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I31" t="n">
-        <v>39.08034477246328</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J31" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S31" t="n">
         <v>215.5082519109386</v>
@@ -24894,16 +24894,16 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2923991651731</v>
+        <v>2.835156221256625</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>155.0195844516589</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H32" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>168.5152279305241</v>
@@ -24973,16 +24973,16 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2585806574976</v>
+        <v>84.48477170403285</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>46.98438228705567</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H33" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,10 +25046,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>199.560477109149</v>
       </c>
     </row>
     <row r="34">
@@ -25077,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>112.7850073772597</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.8864513226399</v>
       </c>
       <c r="I34" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>3.065755392674475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>328.3281935684761</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>9.597943005560509</v>
+        <v>33.34611913963806</v>
       </c>
       <c r="S35" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>119.4112741159299</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,7 +25283,7 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S36" t="n">
-        <v>21.8582818216388</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25335,7 +25335,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J37" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R37" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>215.5082519109386</v>
+        <v>87.39224596789387</v>
       </c>
       <c r="T37" t="n">
         <v>225.8595577750547</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.28004913598144</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I38" t="n">
-        <v>74.65115650211683</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>184.2180832787735</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>9.203915061407258</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>40.83241315067028</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25490,7 +25490,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I39" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.52930518410781</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S39" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.8174615641865</v>
@@ -25572,7 +25572,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J40" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.54214835391122</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U40" t="n">
         <v>286.2923991651731</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>195.9159235327849</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>9.501197726733551</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>276.9451689045595</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H41" t="n">
         <v>328.3281935684761</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>124.6223862006004</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>106.6111980758233</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S42" t="n">
-        <v>14.02315078433244</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.8174615641865</v>
@@ -25809,7 +25809,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J43" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R43" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>215.5082519109386</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.985058607274254</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>158.5568947795638</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>349.3854092110412</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>168.5152279305241</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V44" t="n">
-        <v>190.4830929887956</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>133.5384655307693</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>15.51422263412073</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,19 +25997,19 @@
         <v>160.8663307357858</v>
       </c>
       <c r="T45" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.5027591842993</v>
@@ -26046,7 +26046,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J46" t="n">
-        <v>58.84201380359814</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U46" t="n">
-        <v>63.64849916881053</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>148.2562042441878</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>392738.7723686378</v>
+        <v>392738.7723686377</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>676489.7967680608</v>
+        <v>676489.7967680607</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676489.7967680607</v>
+        <v>676489.7967680608</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676489.7967680607</v>
+        <v>676489.7967680608</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>587592.7551856306</v>
+        <v>587592.755185631</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>587592.7551856306</v>
+        <v>587592.755185631</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>587592.7551856306</v>
+        <v>587592.7551856308</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>587592.7551856306</v>
+        <v>587592.7551856309</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
+        <v>512047.711698149</v>
+      </c>
+      <c r="D2" t="n">
         <v>512047.7116981491</v>
       </c>
-      <c r="D2" t="n">
-        <v>512047.7116981489</v>
-      </c>
       <c r="E2" t="n">
-        <v>193820.8397526653</v>
+        <v>193820.8397526652</v>
       </c>
       <c r="F2" t="n">
         <v>193820.8397526652</v>
@@ -26334,25 +26334,25 @@
         <v>193820.8397526652</v>
       </c>
       <c r="I2" t="n">
-        <v>317743.3321614178</v>
+        <v>317743.3321614179</v>
       </c>
       <c r="J2" t="n">
-        <v>317743.3321614178</v>
+        <v>317743.3321614179</v>
       </c>
       <c r="K2" t="n">
-        <v>317743.3321614177</v>
+        <v>317743.3321614179</v>
       </c>
       <c r="L2" t="n">
         <v>317743.3321614179</v>
       </c>
       <c r="M2" t="n">
+        <v>278919.3561635302</v>
+      </c>
+      <c r="N2" t="n">
         <v>278919.3561635301</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>278919.3561635302</v>
-      </c>
-      <c r="O2" t="n">
-        <v>278919.3561635301</v>
       </c>
       <c r="P2" t="n">
         <v>278919.3561635301</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>111363.1906344405</v>
+        <v>111363.1906344404</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>43975.03241952815</v>
+        <v>43975.03241952816</v>
       </c>
       <c r="F4" t="n">
         <v>43975.03241952816</v>
@@ -26435,10 +26435,10 @@
         <v>43975.03241952816</v>
       </c>
       <c r="H4" t="n">
-        <v>43975.03241952816</v>
+        <v>43975.03241952815</v>
       </c>
       <c r="I4" t="n">
-        <v>104969.0231735147</v>
+        <v>104969.0231735148</v>
       </c>
       <c r="J4" t="n">
         <v>104969.0231735147</v>
@@ -26459,7 +26459,7 @@
         <v>85860.06896335146</v>
       </c>
       <c r="P4" t="n">
-        <v>85860.06896335146</v>
+        <v>85860.06896335148</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>13879.19110417313</v>
       </c>
       <c r="I5" t="n">
-        <v>39341.19670197841</v>
+        <v>39341.19670197842</v>
       </c>
       <c r="J5" t="n">
-        <v>39341.19670197841</v>
+        <v>39341.19670197842</v>
       </c>
       <c r="K5" t="n">
-        <v>39341.19670197841</v>
+        <v>39341.19670197842</v>
       </c>
       <c r="L5" t="n">
-        <v>39341.19670197841</v>
+        <v>39341.19670197842</v>
       </c>
       <c r="M5" t="n">
-        <v>31364.14366687133</v>
+        <v>31364.14366687134</v>
       </c>
       <c r="N5" t="n">
-        <v>31364.14366687133</v>
+        <v>31364.14366687134</v>
       </c>
       <c r="O5" t="n">
-        <v>31364.14366687133</v>
+        <v>31364.14366687134</v>
       </c>
       <c r="P5" t="n">
-        <v>31364.14366687133</v>
+        <v>31364.14366687134</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69023.08336176249</v>
+        <v>68978.9475830813</v>
       </c>
       <c r="C6" t="n">
-        <v>69023.08336176255</v>
+        <v>68978.94758308136</v>
       </c>
       <c r="D6" t="n">
-        <v>69023.08336176237</v>
+        <v>68978.94758308142</v>
       </c>
       <c r="E6" t="n">
-        <v>-120720.8261353279</v>
+        <v>-133494.0367918284</v>
       </c>
       <c r="F6" t="n">
-        <v>135966.6162289639</v>
+        <v>123193.4055724635</v>
       </c>
       <c r="G6" t="n">
-        <v>135966.6162289639</v>
+        <v>123193.4055724634</v>
       </c>
       <c r="H6" t="n">
-        <v>135966.6162289639</v>
+        <v>123193.4055724635</v>
       </c>
       <c r="I6" t="n">
-        <v>62069.92165148416</v>
+        <v>54253.6106913339</v>
       </c>
       <c r="J6" t="n">
-        <v>173433.1122859246</v>
+        <v>165616.8013257743</v>
       </c>
       <c r="K6" t="n">
-        <v>173433.1122859246</v>
+        <v>165616.8013257743</v>
       </c>
       <c r="L6" t="n">
-        <v>173433.1122859248</v>
+        <v>165616.8013257743</v>
       </c>
       <c r="M6" t="n">
-        <v>161695.1435333073</v>
+        <v>152325.8735332415</v>
       </c>
       <c r="N6" t="n">
-        <v>161695.1435333074</v>
+        <v>152325.8735332415</v>
       </c>
       <c r="O6" t="n">
-        <v>161695.1435333073</v>
+        <v>152325.8735332415</v>
       </c>
       <c r="P6" t="n">
-        <v>161695.1435333074</v>
+        <v>152325.8735332415</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>131.2015301826823</v>
       </c>
       <c r="I4" t="n">
-        <v>549.9845169886902</v>
+        <v>549.9845169886903</v>
       </c>
       <c r="J4" t="n">
-        <v>549.9845169886902</v>
+        <v>549.9845169886903</v>
       </c>
       <c r="K4" t="n">
-        <v>549.9845169886902</v>
+        <v>549.9845169886903</v>
       </c>
       <c r="L4" t="n">
-        <v>549.9845169886902</v>
+        <v>549.9845169886903</v>
       </c>
       <c r="M4" t="n">
-        <v>418.7829868060079</v>
+        <v>418.782986806008</v>
       </c>
       <c r="N4" t="n">
-        <v>418.7829868060079</v>
+        <v>418.782986806008</v>
       </c>
       <c r="O4" t="n">
-        <v>418.7829868060079</v>
+        <v>418.782986806008</v>
       </c>
       <c r="P4" t="n">
-        <v>418.7829868060079</v>
+        <v>418.782986806008</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>418.7829868060081</v>
+        <v>418.7829868060079</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J26" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K26" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L26" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M26" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N26" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O26" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P26" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q26" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R26" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S26" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T26" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H27" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I27" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J27" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K27" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L27" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M27" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N27" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O27" t="n">
         <v>138.5551687002882</v>
@@ -33046,10 +33046,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R27" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S27" t="n">
         <v>10.81684036805206</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H28" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I28" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J28" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K28" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L28" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M28" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N28" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O28" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P28" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R28" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S28" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T28" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J29" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K29" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L29" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M29" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N29" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O29" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P29" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q29" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R29" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S29" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T29" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H30" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I30" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J30" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K30" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L30" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M30" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N30" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O30" t="n">
         <v>138.5551687002882</v>
@@ -33283,10 +33283,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R30" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S30" t="n">
         <v>10.81684036805206</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H31" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I31" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J31" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K31" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L31" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M31" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N31" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O31" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P31" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R31" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S31" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T31" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J32" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K32" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L32" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M32" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N32" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O32" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P32" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q32" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R32" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S32" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T32" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H33" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I33" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J33" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K33" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L33" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M33" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N33" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O33" t="n">
         <v>138.5551687002882</v>
@@ -33520,10 +33520,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R33" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S33" t="n">
         <v>10.81684036805206</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H34" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I34" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J34" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K34" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L34" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M34" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N34" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O34" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P34" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R34" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S34" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T34" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,40 +33657,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J35" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K35" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L35" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M35" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N35" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O35" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P35" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q35" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R35" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S35" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T35" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H36" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I36" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J36" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K36" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L36" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M36" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N36" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O36" t="n">
         <v>138.5551687002882</v>
@@ -33757,10 +33757,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R36" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S36" t="n">
         <v>10.81684036805206</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H37" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I37" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J37" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K37" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L37" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M37" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N37" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O37" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P37" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R37" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S37" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T37" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J38" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K38" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L38" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M38" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N38" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O38" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P38" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q38" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R38" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S38" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T38" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H39" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I39" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J39" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K39" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M39" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N39" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O39" t="n">
         <v>138.5551687002882</v>
@@ -33994,10 +33994,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R39" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S39" t="n">
         <v>10.81684036805206</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H40" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I40" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J40" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K40" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L40" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M40" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N40" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O40" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P40" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R40" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S40" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T40" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J41" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K41" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L41" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M41" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N41" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O41" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P41" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q41" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R41" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S41" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T41" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H42" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I42" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J42" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K42" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L42" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M42" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N42" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O42" t="n">
         <v>138.5551687002882</v>
@@ -34231,10 +34231,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R42" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S42" t="n">
         <v>10.81684036805206</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H43" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I43" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K43" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L43" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M43" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N43" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O43" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P43" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R43" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S43" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T43" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,40 +34368,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J44" t="n">
-        <v>92.37685509001791</v>
+        <v>92.37685509001793</v>
       </c>
       <c r="K44" t="n">
-        <v>138.4489595505897</v>
+        <v>138.4489595505898</v>
       </c>
       <c r="L44" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M44" t="n">
-        <v>191.1140659665103</v>
+        <v>191.1140659665104</v>
       </c>
       <c r="N44" t="n">
-        <v>194.2064913574529</v>
+        <v>194.206491357453</v>
       </c>
       <c r="O44" t="n">
-        <v>183.3836827411096</v>
+        <v>183.3836827411097</v>
       </c>
       <c r="P44" t="n">
-        <v>156.5137304880889</v>
+        <v>156.513730488089</v>
       </c>
       <c r="Q44" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R44" t="n">
-        <v>68.36940306688861</v>
+        <v>68.36940306688862</v>
       </c>
       <c r="S44" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T44" t="n">
-        <v>4.764484698231824</v>
+        <v>4.764484698231825</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08707225033890248</v>
+        <v>0.08707225033890251</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.582347013911658</v>
+        <v>0.5823470139116581</v>
       </c>
       <c r="H45" t="n">
-        <v>5.624246160673119</v>
+        <v>5.62424616067312</v>
       </c>
       <c r="I45" t="n">
-        <v>20.05010552283559</v>
+        <v>20.0501055228356</v>
       </c>
       <c r="J45" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K45" t="n">
-        <v>94.03627197888382</v>
+        <v>94.03627197888385</v>
       </c>
       <c r="L45" t="n">
-        <v>126.4433724723536</v>
+        <v>126.4433724723537</v>
       </c>
       <c r="M45" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N45" t="n">
-        <v>151.458752534857</v>
+        <v>151.4587525348571</v>
       </c>
       <c r="O45" t="n">
         <v>138.5551687002882</v>
@@ -34468,10 +34468,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.33608549510919</v>
+        <v>74.3360854951092</v>
       </c>
       <c r="R45" t="n">
-        <v>36.15659793391857</v>
+        <v>36.15659793391858</v>
       </c>
       <c r="S45" t="n">
         <v>10.81684036805206</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4882201741594716</v>
+        <v>0.4882201741594717</v>
       </c>
       <c r="H46" t="n">
-        <v>4.340721184799668</v>
+        <v>4.340721184799669</v>
       </c>
       <c r="I46" t="n">
-        <v>14.6821121465412</v>
+        <v>14.68211214654121</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51716631307464</v>
+        <v>34.51716631307465</v>
       </c>
       <c r="K46" t="n">
-        <v>56.72230750689132</v>
+        <v>56.72230750689133</v>
       </c>
       <c r="L46" t="n">
-        <v>72.58502480185454</v>
+        <v>72.58502480185456</v>
       </c>
       <c r="M46" t="n">
-        <v>76.53073148210697</v>
+        <v>76.53073148210699</v>
       </c>
       <c r="N46" t="n">
-        <v>74.7110017420581</v>
+        <v>74.71100174205812</v>
       </c>
       <c r="O46" t="n">
-        <v>69.00770243483151</v>
+        <v>69.00770243483153</v>
       </c>
       <c r="P46" t="n">
-        <v>59.04801088197825</v>
+        <v>59.04801088197826</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.8817820380263</v>
+        <v>40.88178203802631</v>
       </c>
       <c r="R46" t="n">
-        <v>21.95215437629769</v>
+        <v>21.9521543762977</v>
       </c>
       <c r="S46" t="n">
-        <v>8.508346126033697</v>
+        <v>8.508346126033699</v>
       </c>
       <c r="T46" t="n">
-        <v>2.086031653226832</v>
+        <v>2.086031653226833</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02663019131778939</v>
+        <v>0.0266301913177894</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>80.42756573540539</v>
       </c>
       <c r="K11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>131.2015301826823</v>
@@ -35421,16 +35421,16 @@
         <v>131.2015301826823</v>
       </c>
       <c r="N11" t="n">
-        <v>45.47289252070389</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>69.12982849561641</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>54.27243072054489</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>125.9004582561093</v>
+      </c>
+      <c r="N12" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="L12" t="n">
-        <v>46.09156927940784</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5.419417804632872</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20.11704045152374</v>
       </c>
       <c r="O12" t="n">
         <v>131.2015301826823</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.4528156810084</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L13" t="n">
         <v>100.1750500621707</v>
@@ -35579,7 +35579,7 @@
         <v>116.1146084439476</v>
       </c>
       <c r="N13" t="n">
-        <v>118.8431741212867</v>
+        <v>118.8431741212866</v>
       </c>
       <c r="O13" t="n">
         <v>93.59283034887119</v>
@@ -35652,22 +35652,22 @@
         <v>131.2015301826823</v>
       </c>
       <c r="L14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="N14" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>45.47289252070389</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>54.27243072054489</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="M15" t="n">
+        <v>105.7834178045856</v>
+      </c>
+      <c r="N15" t="n">
+        <v>20.11704045152374</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="N15" t="n">
-        <v>71.62802753556446</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>80.42756573540539</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>69.12982849561647</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="O17" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="P17" t="n">
-        <v>131.2015301826823</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.5445942077697</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>54.27243072054489</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
-        <v>5.419417804632872</v>
+        <v>125.9004582561093</v>
       </c>
       <c r="N18" t="n">
-        <v>20.11704045152374</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="O18" t="n">
-        <v>46.09156927940784</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>131.2015301826823</v>
@@ -36123,25 +36123,25 @@
         <v>80.42756573540539</v>
       </c>
       <c r="K20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="N20" t="n">
-        <v>45.47289252070389</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>69.12982849561641</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>54.27243072054489</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>100.3639999999527</v>
       </c>
       <c r="L21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>5.419417804632872</v>
       </c>
       <c r="N21" t="n">
+        <v>20.11704045152374</v>
+      </c>
+      <c r="O21" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="O21" t="n">
-        <v>66.20860973093151</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Q21" t="n">
         <v>131.2015301826823</v>
@@ -36378,7 +36378,7 @@
         <v>247.079442904302</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.5445942077694</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.45929493855885</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>220.6600700171034</v>
       </c>
       <c r="L24" t="n">
         <v>358.7293379959386</v>
@@ -36454,10 +36454,10 @@
         <v>389.8212435325732</v>
       </c>
       <c r="P24" t="n">
-        <v>295.6910993470357</v>
+        <v>183.6494926928832</v>
       </c>
       <c r="Q24" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>80.42756573540539</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5045210767739</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L26" t="n">
         <v>353.6529763974178</v>
@@ -36609,10 +36609,10 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O26" t="n">
-        <v>334.0856525821682</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P26" t="n">
-        <v>247.079442904302</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q26" t="n">
         <v>107.5445942077694</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>54.27243072054489</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K27" t="n">
-        <v>220.6600700171034</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L27" t="n">
         <v>358.7293379959386</v>
@@ -36688,7 +36688,7 @@
         <v>242.9862089959879</v>
       </c>
       <c r="O27" t="n">
-        <v>389.8212435325732</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P27" t="n">
         <v>295.6910993470357</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L28" t="n">
         <v>100.1750500621707</v>
@@ -36767,10 +36767,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O28" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P28" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>80.42756573540539</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5045210767739</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L29" t="n">
         <v>353.6529763974178</v>
@@ -36846,13 +36846,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O29" t="n">
-        <v>334.0856525821682</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P29" t="n">
-        <v>247.079442904302</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q29" t="n">
-        <v>107.5445942077697</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>54.27243072054489</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L30" t="n">
         <v>358.7293379959386</v>
@@ -36922,10 +36922,10 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N30" t="n">
-        <v>499.4594147950772</v>
+        <v>242.9862089959879</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0081077505872</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P30" t="n">
         <v>295.6910993470357</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L31" t="n">
         <v>100.1750500621707</v>
@@ -37004,10 +37004,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O31" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P31" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.42756573540478</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5045210767739</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L32" t="n">
         <v>353.6529763974178</v>
@@ -37083,13 +37083,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O32" t="n">
-        <v>334.0856525821682</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P32" t="n">
-        <v>247.079442904302</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.5445942077697</v>
+        <v>107.5445942077694</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>220.6600700171034</v>
+        <v>18.45929493855884</v>
       </c>
       <c r="L33" t="n">
-        <v>156.5285629173941</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M33" t="n">
         <v>471.1244815546328</v>
       </c>
       <c r="N33" t="n">
-        <v>499.4594147950772</v>
+        <v>499.4594147950773</v>
       </c>
       <c r="O33" t="n">
-        <v>389.8212435325732</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P33" t="n">
         <v>295.6910993470357</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L34" t="n">
         <v>100.1750500621707</v>
@@ -37241,10 +37241,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O34" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P34" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37317,16 +37317,16 @@
         <v>410.2813662320701</v>
       </c>
       <c r="N35" t="n">
-        <v>402.1403521728462</v>
+        <v>205.567390180869</v>
       </c>
       <c r="O35" t="n">
-        <v>334.0856525821682</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P35" t="n">
-        <v>158.0510751200947</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>54.27243072054489</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L36" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M36" t="n">
-        <v>418.7829868060079</v>
+        <v>418.782986806008</v>
       </c>
       <c r="N36" t="n">
-        <v>292.1738243045955</v>
+        <v>165.64389847303</v>
       </c>
       <c r="O36" t="n">
-        <v>389.8212435325732</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>295.6910993470357</v>
       </c>
       <c r="Q36" t="n">
         <v>144.4315991449368</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L37" t="n">
         <v>100.1750500621707</v>
@@ -37478,10 +37478,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O37" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P37" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>353.6529763974178</v>
       </c>
       <c r="M38" t="n">
-        <v>321.2529984478626</v>
+        <v>410.2813662320701</v>
       </c>
       <c r="N38" t="n">
-        <v>402.1403521728462</v>
+        <v>313.1119843886388</v>
       </c>
       <c r="O38" t="n">
-        <v>334.0856525821682</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P38" t="n">
-        <v>247.079442904302</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K39" t="n">
-        <v>220.6600700171034</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>358.7293379959386</v>
+        <v>80.8606752924276</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7610320154854</v>
+        <v>418.782986806008</v>
       </c>
       <c r="N39" t="n">
-        <v>20.11704045152374</v>
+        <v>418.782986806008</v>
       </c>
       <c r="O39" t="n">
-        <v>389.8212435325732</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P39" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q39" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L40" t="n">
         <v>100.1750500621707</v>
@@ -37715,10 +37715,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O40" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P40" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>80.42756573540539</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>158.0510751200947</v>
       </c>
       <c r="L41" t="n">
         <v>353.6529763974178</v>
@@ -37794,13 +37794,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O41" t="n">
-        <v>334.0856525821682</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>77.62350938468917</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M42" t="n">
-        <v>409.4844936740434</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N42" t="n">
-        <v>418.7829868060079</v>
+        <v>243.4586546623767</v>
       </c>
       <c r="O42" t="n">
-        <v>389.8212435325732</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P42" t="n">
         <v>295.6910993470357</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L43" t="n">
         <v>100.1750500621707</v>
@@ -37952,10 +37952,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O43" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P43" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80.42756573540539</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L44" t="n">
         <v>353.6529763974178</v>
@@ -38031,13 +38031,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O44" t="n">
-        <v>57.08512485478565</v>
+        <v>169.2046408900838</v>
       </c>
       <c r="P44" t="n">
-        <v>247.079442904302</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>107.5445942077697</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>220.6600700171034</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L45" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M45" t="n">
-        <v>5.419417804632872</v>
+        <v>418.782986806008</v>
       </c>
       <c r="N45" t="n">
-        <v>418.7829868060079</v>
+        <v>20.11704045152376</v>
       </c>
       <c r="O45" t="n">
-        <v>389.8212435325732</v>
+        <v>389.8212435325733</v>
       </c>
       <c r="P45" t="n">
-        <v>264.7983663483409</v>
+        <v>105.6691445565134</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>34.45281568100847</v>
+        <v>34.45281568100848</v>
       </c>
       <c r="L46" t="n">
         <v>100.1750500621707</v>
@@ -38189,10 +38189,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O46" t="n">
-        <v>93.59283034887119</v>
+        <v>93.5928303488712</v>
       </c>
       <c r="P46" t="n">
-        <v>56.32657014687174</v>
+        <v>56.32657014687175</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>765921.9424954569</v>
+        <v>819039.1920111602</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4065790.381183237</v>
+        <v>4065790.381183238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11996757.38029103</v>
+        <v>11996757.38029104</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="D11" t="n">
-        <v>34.06259291064546</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="G11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>81.49971487426107</v>
       </c>
       <c r="S11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>131.2015301826823</v>
+        <v>34.06259291064549</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,20 +1448,20 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="T12" t="n">
+      <c r="Y12" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>115.5623077849066</v>
       </c>
     </row>
     <row r="13">
@@ -1533,70 +1533,70 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>115.5623077849066</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="V13" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.06259291064545</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>81.49971487426107</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.06259291064544</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="W15" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>70.28204657123845</v>
       </c>
       <c r="T16" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="W16" t="n">
         <v>131.2015301826823</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>34.06259291064545</v>
       </c>
       <c r="G17" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S17" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>51.56107156618202</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="V18" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="W18" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="T19" t="n">
-        <v>131.2015301826823</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="U19" t="n">
-        <v>70.28204657123857</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>131.2015301826823</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>34.06259291064544</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.06259291064549</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.951109709083282</v>
+      </c>
+      <c r="F21" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="X21" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>70.28204657123847</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,20 +2283,20 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H23" t="n">
         <v>328.3281935684761</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U23" t="n">
-        <v>235.4736510520778</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>30.01656327477874</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2405,10 +2405,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.761170149299</v>
@@ -2417,7 +2417,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>160.8663307357858</v>
       </c>
       <c r="T24" t="n">
-        <v>197.8174615641865</v>
+        <v>167.767491930847</v>
       </c>
       <c r="U24" t="n">
         <v>225.903069777428</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>111.476430675433</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>222.6438999963626</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>4.784805351157304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.2143343858988</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T26" t="n">
-        <v>141.6278695336885</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>329.7441386486951</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.761170149299</v>
@@ -2690,13 +2690,13 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U27" t="n">
-        <v>34.65063491236413</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>81.90651955233901</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.41815289347353</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>222.8744991677805</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>50.81736653472466</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2585806574976</v>
+        <v>64.0554405489524</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2879,10 +2879,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>103.1538157396359</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>160.8663307357858</v>
       </c>
       <c r="T30" t="n">
-        <v>154.813526903886</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.420889235259</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U31" t="n">
-        <v>283.4572429439165</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>166.7738089534647</v>
+        <v>211.3288256251944</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>225.903069777428</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>63.01212354084468</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.122218668155349</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>33.64895526930945</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.5389777771819</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>48.153595734623</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>118.0536166729314</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>47.12190953393747</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>106.985229380411</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>225.903069777428</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S37" t="n">
-        <v>128.1160059430447</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>28.43645082514264</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>186.6790544585921</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>360.5271856170618</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>125.7007704991971</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I39" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>160.8663307357858</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U39" t="n">
         <v>225.903069777428</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>70.13600989621321</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S40" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.1160059430447</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>29.79373185625222</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>355.771694044274</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S41" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>51.13084929502734</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>48.08611278771535</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>118.1565176301506</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3836,10 +3836,10 @@
         <v>136.761170149299</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>125.420889235259</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>127.9661035570272</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>15.88748255996637</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>328.3281935684761</v>
+        <v>61.88173426737887</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S44" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>157.194276354195</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>136.761170149299</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.8174615641865</v>
+        <v>149.1592289991378</v>
       </c>
       <c r="U45" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>47.62761810751074</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>77.45345114484931</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.4295800846427</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="C11" t="n">
-        <v>177.4295800846427</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="D11" t="n">
-        <v>143.0229205789402</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="E11" t="n">
         <v>143.0229205789402</v>
       </c>
       <c r="F11" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G11" t="n">
         <v>10.49612241461459</v>
@@ -5041,22 +5041,22 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J11" t="n">
-        <v>90.11941249266593</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K11" t="n">
-        <v>90.11941249266593</v>
+        <v>28.66842782247073</v>
       </c>
       <c r="L11" t="n">
-        <v>220.0089273735214</v>
+        <v>28.66842782247073</v>
       </c>
       <c r="M11" t="n">
-        <v>349.898442254377</v>
+        <v>28.66842782247073</v>
       </c>
       <c r="N11" t="n">
-        <v>349.898442254377</v>
+        <v>158.5579427033262</v>
       </c>
       <c r="O11" t="n">
-        <v>418.3369724650372</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="P11" t="n">
         <v>418.3369724650372</v>
@@ -5068,25 +5068,25 @@
         <v>442.4831764132938</v>
       </c>
       <c r="S11" t="n">
-        <v>309.9563782489682</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="T11" t="n">
-        <v>309.9563782489682</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="U11" t="n">
-        <v>177.4295800846427</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="V11" t="n">
-        <v>177.4295800846427</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="W11" t="n">
-        <v>177.4295800846427</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="X11" t="n">
-        <v>177.4295800846427</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.4295800846427</v>
+        <v>408.0765169075913</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C12" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D12" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E12" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F12" t="n">
         <v>10.49612241461459</v>
@@ -5123,22 +5123,22 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K12" t="n">
-        <v>10.49612241461459</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="L12" t="n">
-        <v>10.49612241461459</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="M12" t="n">
-        <v>135.1375760881628</v>
+        <v>375.0007358028653</v>
       </c>
       <c r="N12" t="n">
-        <v>265.0270909690183</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="O12" t="n">
         <v>394.9166058498738</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9166058498738</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q12" t="n">
         <v>524.8061207307293</v>
@@ -5147,25 +5147,25 @@
         <v>524.8061207307293</v>
       </c>
       <c r="S12" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="T12" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="U12" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="V12" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="W12" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="X12" t="n">
         <v>392.2793225664037</v>
       </c>
-      <c r="T12" t="n">
+      <c r="Y12" t="n">
         <v>259.7525244020782</v>
-      </c>
-      <c r="U12" t="n">
-        <v>259.7525244020782</v>
-      </c>
-      <c r="V12" t="n">
-        <v>259.7525244020782</v>
-      </c>
-      <c r="W12" t="n">
-        <v>259.7525244020782</v>
-      </c>
-      <c r="X12" t="n">
-        <v>259.7525244020782</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C13" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D13" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E13" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F13" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G13" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H13" t="n">
         <v>10.49612241461459</v>
@@ -5226,25 +5226,25 @@
         <v>524.8061207307293</v>
       </c>
       <c r="S13" t="n">
-        <v>524.8061207307293</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="T13" t="n">
-        <v>524.8061207307293</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="U13" t="n">
-        <v>524.8061207307293</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V13" t="n">
-        <v>524.8061207307293</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W13" t="n">
-        <v>524.8061207307293</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X13" t="n">
-        <v>392.2793225664037</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y13" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.0229205789402</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="C14" t="n">
-        <v>143.0229205789402</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="D14" t="n">
-        <v>143.0229205789402</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="E14" t="n">
-        <v>143.0229205789402</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="F14" t="n">
-        <v>143.0229205789402</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="G14" t="n">
-        <v>10.49612241461459</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="H14" t="n">
-        <v>10.49612241461459</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="I14" t="n">
         <v>10.49612241461459</v>
@@ -5293,10 +5293,10 @@
         <v>479.7879571352324</v>
       </c>
       <c r="O14" t="n">
-        <v>479.7879571352324</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="P14" t="n">
-        <v>479.7879571352324</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q14" t="n">
         <v>524.8061207307293</v>
@@ -5305,7 +5305,7 @@
         <v>442.4831764132938</v>
       </c>
       <c r="S14" t="n">
-        <v>442.4831764132938</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="T14" t="n">
         <v>309.9563782489682</v>
@@ -5314,16 +5314,16 @@
         <v>309.9563782489682</v>
       </c>
       <c r="V14" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="W14" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.0229205789402</v>
+        <v>309.9563782489682</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C15" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D15" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="E15" t="n">
         <v>10.49612241461459</v>
@@ -5357,25 +5357,25 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J15" t="n">
-        <v>10.49612241461459</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="K15" t="n">
-        <v>10.49612241461459</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="L15" t="n">
-        <v>140.3856372954701</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="M15" t="n">
-        <v>245.1112209220098</v>
+        <v>199.4805673353961</v>
       </c>
       <c r="N15" t="n">
-        <v>265.0270909690183</v>
+        <v>329.3700822162516</v>
       </c>
       <c r="O15" t="n">
-        <v>265.0270909690183</v>
+        <v>329.3700822162516</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9166058498738</v>
+        <v>459.2595970971071</v>
       </c>
       <c r="Q15" t="n">
         <v>524.8061207307293</v>
@@ -5390,19 +5390,19 @@
         <v>524.8061207307293</v>
       </c>
       <c r="U15" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="V15" t="n">
         <v>392.2793225664037</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
+        <v>392.2793225664037</v>
+      </c>
+      <c r="X15" t="n">
+        <v>392.2793225664037</v>
+      </c>
+      <c r="Y15" t="n">
         <v>259.7525244020782</v>
-      </c>
-      <c r="W15" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="X15" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C16" t="n">
         <v>10.49612241461459</v>
@@ -5439,7 +5439,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K16" t="n">
-        <v>44.60440993881286</v>
+        <v>44.60440993881294</v>
       </c>
       <c r="L16" t="n">
         <v>143.7777095003619</v>
@@ -5457,31 +5457,31 @@
         <v>524.8061207307293</v>
       </c>
       <c r="Q16" t="n">
-        <v>524.8061207307293</v>
+        <v>479.0684831411655</v>
       </c>
       <c r="R16" t="n">
-        <v>524.8061207307293</v>
+        <v>479.0684831411655</v>
       </c>
       <c r="S16" t="n">
-        <v>524.8061207307293</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="T16" t="n">
-        <v>392.2793225664037</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="U16" t="n">
-        <v>259.7525244020782</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V16" t="n">
-        <v>259.7525244020782</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W16" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="X16" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.2257262377526</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7525244020782</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="C17" t="n">
-        <v>259.7525244020782</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="D17" t="n">
-        <v>259.7525244020782</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="E17" t="n">
-        <v>143.0229205789402</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="F17" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G17" t="n">
         <v>10.49612241461459</v>
@@ -5515,52 +5515,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J17" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="K17" t="n">
-        <v>10.49612241461459</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="L17" t="n">
-        <v>140.3856372954701</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="M17" t="n">
-        <v>140.3856372954701</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="N17" t="n">
-        <v>270.2751521763256</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="O17" t="n">
-        <v>400.1646670571811</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="P17" t="n">
-        <v>524.8061207307293</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q17" t="n">
         <v>524.8061207307293</v>
       </c>
       <c r="R17" t="n">
-        <v>524.8061207307293</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S17" t="n">
-        <v>392.2793225664037</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="T17" t="n">
-        <v>259.7525244020782</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="U17" t="n">
-        <v>259.7525244020782</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="V17" t="n">
-        <v>259.7525244020782</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="W17" t="n">
-        <v>259.7525244020782</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="X17" t="n">
-        <v>259.7525244020782</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="Y17" t="n">
-        <v>259.7525244020782</v>
+        <v>177.4295800846427</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="C18" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="D18" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E18" t="n">
         <v>10.49612241461459</v>
@@ -5597,19 +5597,19 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K18" t="n">
-        <v>10.49612241461459</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="L18" t="n">
-        <v>140.3856372954701</v>
+        <v>239.7459972954233</v>
       </c>
       <c r="M18" t="n">
+        <v>245.1112209220098</v>
+      </c>
+      <c r="N18" t="n">
         <v>265.0270909690183</v>
       </c>
-      <c r="N18" t="n">
-        <v>394.9166058498738</v>
-      </c>
       <c r="O18" t="n">
-        <v>394.9166058498738</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="P18" t="n">
         <v>394.9166058498738</v>
@@ -5618,28 +5618,28 @@
         <v>524.8061207307293</v>
       </c>
       <c r="R18" t="n">
-        <v>460.1584073784823</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S18" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T18" t="n">
-        <v>408.0765169075913</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U18" t="n">
-        <v>275.5497187432658</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V18" t="n">
-        <v>143.0229205789402</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="W18" t="n">
-        <v>10.49612241461459</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="X18" t="n">
-        <v>10.49612241461459</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.49612241461459</v>
+        <v>392.2793225664037</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="C19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="H19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="I19" t="n">
         <v>10.49612241461459</v>
@@ -5676,49 +5676,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K19" t="n">
-        <v>44.60440993881296</v>
+        <v>44.60440993881286</v>
       </c>
       <c r="L19" t="n">
-        <v>143.7777095003619</v>
+        <v>143.7777095003618</v>
       </c>
       <c r="M19" t="n">
-        <v>258.73117185987</v>
+        <v>258.7311718598699</v>
       </c>
       <c r="N19" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O19" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q19" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R19" t="n">
-        <v>479.0684831411656</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="S19" t="n">
-        <v>479.0684831411656</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="T19" t="n">
-        <v>346.5416849768401</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="U19" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="V19" t="n">
         <v>143.0229205789402</v>
       </c>
       <c r="W19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="X19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>275.5497187432658</v>
       </c>
       <c r="E20" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F20" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G20" t="n">
         <v>143.0229205789402</v>
@@ -5758,16 +5758,16 @@
         <v>90.11941249266593</v>
       </c>
       <c r="L20" t="n">
-        <v>220.0089273735214</v>
+        <v>158.5579427033262</v>
       </c>
       <c r="M20" t="n">
-        <v>220.0089273735214</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="N20" t="n">
-        <v>220.0089273735214</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="O20" t="n">
-        <v>349.898442254377</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="P20" t="n">
         <v>418.3369724650372</v>
@@ -5782,16 +5782,16 @@
         <v>442.4831764132938</v>
       </c>
       <c r="T20" t="n">
-        <v>442.4831764132938</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="U20" t="n">
-        <v>442.4831764132938</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="V20" t="n">
-        <v>442.4831764132938</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="W20" t="n">
-        <v>408.0765169075913</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="X20" t="n">
         <v>275.5497187432658</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C21" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="D21" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="E21" t="n">
-        <v>10.49612241461459</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="F21" t="n">
-        <v>10.49612241461459</v>
+        <v>118.1842012790826</v>
       </c>
       <c r="G21" t="n">
-        <v>10.49612241461459</v>
+        <v>118.1842012790826</v>
       </c>
       <c r="H21" t="n">
         <v>10.49612241461459</v>
@@ -5831,22 +5831,22 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J21" t="n">
-        <v>10.49612241461459</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="K21" t="n">
-        <v>109.8564824145678</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="L21" t="n">
-        <v>109.8564824145678</v>
+        <v>64.22582882795403</v>
       </c>
       <c r="M21" t="n">
-        <v>115.2217060411543</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="N21" t="n">
-        <v>135.1375760881628</v>
+        <v>214.031213755818</v>
       </c>
       <c r="O21" t="n">
-        <v>265.0270909690183</v>
+        <v>343.9207286366735</v>
       </c>
       <c r="P21" t="n">
         <v>394.9166058498738</v>
@@ -5861,22 +5861,22 @@
         <v>524.8061207307293</v>
       </c>
       <c r="T21" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="U21" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="V21" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="W21" t="n">
         <v>392.2793225664037</v>
       </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
         <v>392.2793225664037</v>
       </c>
-      <c r="V21" t="n">
-        <v>392.2793225664037</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>259.7525244020782</v>
-      </c>
-      <c r="X21" t="n">
-        <v>143.0229205789402</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C22" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="D22" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E22" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F22" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="G22" t="n">
         <v>10.49612241461459</v>
@@ -5910,10 +5910,10 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J22" t="n">
-        <v>10.49612241461459</v>
+        <v>10.49612241461453</v>
       </c>
       <c r="K22" t="n">
-        <v>44.60440993881286</v>
+        <v>44.60440993881291</v>
       </c>
       <c r="L22" t="n">
         <v>143.7777095003619</v>
@@ -5931,31 +5931,31 @@
         <v>524.8061207307293</v>
       </c>
       <c r="Q22" t="n">
-        <v>479.0684831411655</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R22" t="n">
-        <v>346.54168497684</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S22" t="n">
-        <v>214.0148868125144</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T22" t="n">
-        <v>214.0148868125144</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="U22" t="n">
-        <v>214.0148868125144</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="V22" t="n">
-        <v>214.0148868125144</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W22" t="n">
-        <v>214.0148868125144</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X22" t="n">
-        <v>214.0148868125144</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.48808864818881</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1119.697352532248</v>
+        <v>1949.081574883369</v>
       </c>
       <c r="C23" t="n">
-        <v>1119.697352532248</v>
+        <v>1949.081574883369</v>
       </c>
       <c r="D23" t="n">
-        <v>761.4316539254971</v>
+        <v>1590.815876276619</v>
       </c>
       <c r="E23" t="n">
-        <v>375.6434013272529</v>
+        <v>1205.027623678374</v>
       </c>
       <c r="F23" t="n">
-        <v>375.6434013272529</v>
+        <v>794.0417188887668</v>
       </c>
       <c r="G23" t="n">
         <v>375.6434013272529</v>
@@ -6013,28 +6013,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R23" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S23" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="T23" t="n">
-        <v>2117.615123637326</v>
+        <v>1979.401335766984</v>
       </c>
       <c r="U23" t="n">
-        <v>1879.762950857449</v>
+        <v>1979.401335766984</v>
       </c>
       <c r="V23" t="n">
-        <v>1879.762950857449</v>
+        <v>1979.401335766984</v>
       </c>
       <c r="W23" t="n">
-        <v>1879.762950857449</v>
+        <v>1979.401335766984</v>
       </c>
       <c r="X23" t="n">
-        <v>1506.297192596369</v>
+        <v>1949.081574883369</v>
       </c>
       <c r="Y23" t="n">
-        <v>1506.297192596369</v>
+        <v>1949.081574883369</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>613.2168752763446</v>
+        <v>989.0358855565106</v>
       </c>
       <c r="C24" t="n">
-        <v>438.7638459952175</v>
+        <v>814.5828562753836</v>
       </c>
       <c r="D24" t="n">
-        <v>289.8294363339663</v>
+        <v>665.6484466141324</v>
       </c>
       <c r="E24" t="n">
-        <v>289.8294363339663</v>
+        <v>506.4109916086768</v>
       </c>
       <c r="F24" t="n">
-        <v>289.8294363339663</v>
+        <v>359.8764336355617</v>
       </c>
       <c r="G24" t="n">
-        <v>151.6868402235633</v>
+        <v>221.7338375251587</v>
       </c>
       <c r="H24" t="n">
-        <v>43.99876135909523</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="I24" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J24" t="n">
-        <v>97.72846777243467</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K24" t="n">
-        <v>316.181937089367</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L24" t="n">
-        <v>671.3239817053463</v>
+        <v>617.5942752920068</v>
       </c>
       <c r="M24" t="n">
-        <v>1137.737218444433</v>
+        <v>1084.007512031093</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.202039091559</v>
+        <v>1578.47233267822</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.125070188807</v>
+        <v>1964.395363775467</v>
       </c>
       <c r="P24" t="n">
         <v>2199.938067954761</v>
@@ -6092,28 +6092,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R24" t="n">
-        <v>2135.290354602514</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S24" t="n">
-        <v>1972.799111435054</v>
+        <v>2037.446824787301</v>
       </c>
       <c r="T24" t="n">
-        <v>1772.983493693451</v>
+        <v>1867.984711725839</v>
       </c>
       <c r="U24" t="n">
-        <v>1544.798574726352</v>
+        <v>1639.79979275874</v>
       </c>
       <c r="V24" t="n">
-        <v>1309.64646649461</v>
+        <v>1404.647684526997</v>
       </c>
       <c r="W24" t="n">
-        <v>1197.044011266899</v>
+        <v>1404.647684526997</v>
       </c>
       <c r="X24" t="n">
-        <v>989.1925110613665</v>
+        <v>1196.796184321465</v>
       </c>
       <c r="Y24" t="n">
-        <v>781.4322122964127</v>
+        <v>989.0358855565106</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.7379853673056</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C25" t="n">
-        <v>338.8018024393987</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="D25" t="n">
-        <v>338.8018024393987</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="E25" t="n">
-        <v>190.8887088570056</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F25" t="n">
         <v>43.99876135909523</v>
@@ -6168,31 +6168,31 @@
         <v>558.30875967521</v>
       </c>
       <c r="Q25" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="R25" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S25" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T25" t="n">
-        <v>512.5711220856463</v>
+        <v>558.30875967521</v>
       </c>
       <c r="U25" t="n">
-        <v>512.5711220856463</v>
+        <v>333.4159313960558</v>
       </c>
       <c r="V25" t="n">
-        <v>512.5711220856463</v>
+        <v>333.4159313960558</v>
       </c>
       <c r="W25" t="n">
-        <v>507.7379853673056</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="X25" t="n">
-        <v>507.7379853673056</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.7379853673056</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1231.648682316967</v>
+        <v>1206.451030125604</v>
       </c>
       <c r="C26" t="n">
-        <v>1231.648682316967</v>
+        <v>1206.451030125604</v>
       </c>
       <c r="D26" t="n">
-        <v>873.3829837102166</v>
+        <v>848.1853315188534</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3829837102166</v>
+        <v>462.3970789206091</v>
       </c>
       <c r="F26" t="n">
         <v>462.3970789206091</v>
@@ -6250,28 +6250,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R26" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S26" t="n">
-        <v>2117.615123637326</v>
+        <v>2013.859195956</v>
       </c>
       <c r="T26" t="n">
-        <v>1974.556669562893</v>
+        <v>1793.322463768223</v>
       </c>
       <c r="U26" t="n">
-        <v>1974.556669562893</v>
+        <v>1539.525917649538</v>
       </c>
       <c r="V26" t="n">
-        <v>1974.556669562893</v>
+        <v>1539.525917649538</v>
       </c>
       <c r="W26" t="n">
-        <v>1621.788014292779</v>
+        <v>1539.525917649538</v>
       </c>
       <c r="X26" t="n">
-        <v>1621.788014292779</v>
+        <v>1539.525917649538</v>
       </c>
       <c r="Y26" t="n">
-        <v>1231.648682316967</v>
+        <v>1206.451030125604</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>664.766251417332</v>
+        <v>811.3008093904469</v>
       </c>
       <c r="C27" t="n">
-        <v>490.313222136205</v>
+        <v>636.84778010932</v>
       </c>
       <c r="D27" t="n">
-        <v>341.3788124749537</v>
+        <v>487.9133704480687</v>
       </c>
       <c r="E27" t="n">
-        <v>182.1413574694982</v>
+        <v>328.6759154426132</v>
       </c>
       <c r="F27" t="n">
         <v>182.1413574694982</v>
@@ -6305,25 +6305,25 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J27" t="n">
-        <v>97.72846777243467</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1819370893671</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L27" t="n">
-        <v>671.3239817053463</v>
+        <v>560.4027911177354</v>
       </c>
       <c r="M27" t="n">
-        <v>1137.737218444433</v>
+        <v>1026.816027856822</v>
       </c>
       <c r="N27" t="n">
-        <v>1378.293565350461</v>
+        <v>1521.280848503948</v>
       </c>
       <c r="O27" t="n">
-        <v>1764.216596447708</v>
+        <v>1907.203879601196</v>
       </c>
       <c r="P27" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q27" t="n">
         <v>2199.938067954761</v>
@@ -6338,19 +6338,19 @@
         <v>1772.983493693451</v>
       </c>
       <c r="U27" t="n">
-        <v>1737.982852367831</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V27" t="n">
-        <v>1502.830744136088</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W27" t="n">
-        <v>1248.593387407887</v>
+        <v>1226.912608360934</v>
       </c>
       <c r="X27" t="n">
-        <v>1040.741887202354</v>
+        <v>1019.061108155401</v>
       </c>
       <c r="Y27" t="n">
-        <v>832.9815884374</v>
+        <v>811.3008093904469</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>522.5328476616004</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C28" t="n">
-        <v>353.5966647336935</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="D28" t="n">
-        <v>203.4800253213578</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="E28" t="n">
-        <v>203.4800253213578</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F28" t="n">
-        <v>203.4800253213578</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G28" t="n">
-        <v>203.4800253213578</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H28" t="n">
         <v>43.99876135909523</v>
@@ -6387,16 +6387,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="K28" t="n">
-        <v>78.10704888329363</v>
+        <v>78.1070488832936</v>
       </c>
       <c r="L28" t="n">
         <v>177.2803484448426</v>
       </c>
       <c r="M28" t="n">
-        <v>292.2338108043507</v>
+        <v>292.2338108043506</v>
       </c>
       <c r="N28" t="n">
-        <v>409.8885531844246</v>
+        <v>409.8885531844245</v>
       </c>
       <c r="O28" t="n">
         <v>502.545455229807</v>
@@ -6417,19 +6417,19 @@
         <v>558.30875967521</v>
       </c>
       <c r="U28" t="n">
-        <v>558.30875967521</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="V28" t="n">
-        <v>558.30875967521</v>
+        <v>269.1245180942271</v>
       </c>
       <c r="W28" t="n">
-        <v>558.30875967521</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="X28" t="n">
-        <v>558.30875967521</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.30875967521</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>744.6059182676646</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="C29" t="n">
-        <v>375.6434013272529</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="D29" t="n">
-        <v>375.6434013272529</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="E29" t="n">
-        <v>375.6434013272529</v>
+        <v>786.6293061168604</v>
       </c>
       <c r="F29" t="n">
         <v>375.6434013272529</v>
@@ -6463,13 +6463,13 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J29" t="n">
-        <v>123.6220514371465</v>
+        <v>123.6220514371464</v>
       </c>
       <c r="K29" t="n">
-        <v>363.7015273031528</v>
+        <v>363.7015273031526</v>
       </c>
       <c r="L29" t="n">
-        <v>713.8179739365964</v>
+        <v>713.8179739365962</v>
       </c>
       <c r="M29" t="n">
         <v>1119.996526506346</v>
@@ -6487,28 +6487,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R29" t="n">
-        <v>2148.607394687363</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S29" t="n">
-        <v>2148.607394687363</v>
+        <v>2013.859195956</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.607394687363</v>
+        <v>2013.859195956</v>
       </c>
       <c r="U29" t="n">
-        <v>1894.810848568678</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="V29" t="n">
-        <v>1894.810848568678</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="W29" t="n">
-        <v>1894.810848568678</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="X29" t="n">
-        <v>1521.345090307598</v>
+        <v>1949.156730755038</v>
       </c>
       <c r="Y29" t="n">
-        <v>1131.205758331786</v>
+        <v>1559.017398779226</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>743.2052105816394</v>
+        <v>471.5819737758532</v>
       </c>
       <c r="C30" t="n">
-        <v>568.7521813005125</v>
+        <v>297.1289444947262</v>
       </c>
       <c r="D30" t="n">
-        <v>419.8177716392612</v>
+        <v>148.1945348334749</v>
       </c>
       <c r="E30" t="n">
-        <v>260.5803166338057</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F30" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G30" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H30" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I30" t="n">
         <v>43.99876135909523</v>
@@ -6545,7 +6545,7 @@
         <v>97.72846777243467</v>
       </c>
       <c r="K30" t="n">
-        <v>316.1819370893671</v>
+        <v>316.181937089367</v>
       </c>
       <c r="L30" t="n">
         <v>671.3239817053463</v>
@@ -6572,22 +6572,22 @@
         <v>1972.799111435054</v>
       </c>
       <c r="T30" t="n">
-        <v>1816.421811532138</v>
+        <v>1772.983493693451</v>
       </c>
       <c r="U30" t="n">
-        <v>1816.421811532138</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V30" t="n">
-        <v>1581.269703300396</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W30" t="n">
-        <v>1327.032346572194</v>
+        <v>1055.409109766408</v>
       </c>
       <c r="X30" t="n">
-        <v>1119.180846366661</v>
+        <v>847.5576095608751</v>
       </c>
       <c r="Y30" t="n">
-        <v>911.4205476017075</v>
+        <v>639.7973107959212</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="C31" t="n">
-        <v>43.99876135909523</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="D31" t="n">
-        <v>43.99876135909523</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="E31" t="n">
-        <v>43.99876135909523</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="F31" t="n">
-        <v>43.99876135909523</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="G31" t="n">
-        <v>43.99876135909523</v>
+        <v>203.4800253213578</v>
       </c>
       <c r="H31" t="n">
         <v>43.99876135909523</v>
@@ -6624,16 +6624,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="K31" t="n">
-        <v>78.10704888329363</v>
+        <v>78.1070488832936</v>
       </c>
       <c r="L31" t="n">
         <v>177.2803484448426</v>
       </c>
       <c r="M31" t="n">
-        <v>292.2338108043507</v>
+        <v>292.2338108043506</v>
       </c>
       <c r="N31" t="n">
-        <v>409.8885531844246</v>
+        <v>409.8885531844245</v>
       </c>
       <c r="O31" t="n">
         <v>502.545455229807</v>
@@ -6651,22 +6651,22 @@
         <v>558.30875967521</v>
       </c>
       <c r="T31" t="n">
-        <v>558.30875967521</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="U31" t="n">
-        <v>271.9883122571126</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="V31" t="n">
-        <v>271.9883122571126</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="W31" t="n">
-        <v>271.9883122571126</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="X31" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1172.417558715105</v>
+        <v>1209.735435687359</v>
       </c>
       <c r="C32" t="n">
-        <v>1172.417558715105</v>
+        <v>840.772918746947</v>
       </c>
       <c r="D32" t="n">
-        <v>1172.417558715105</v>
+        <v>840.772918746947</v>
       </c>
       <c r="E32" t="n">
-        <v>786.6293061168604</v>
+        <v>454.9846661487028</v>
       </c>
       <c r="F32" t="n">
-        <v>375.6434013272529</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G32" t="n">
-        <v>375.6434013272529</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H32" t="n">
         <v>43.99876135909523</v>
@@ -6700,19 +6700,19 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J32" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371464</v>
       </c>
       <c r="K32" t="n">
-        <v>363.7015273031528</v>
+        <v>363.7015273031526</v>
       </c>
       <c r="L32" t="n">
-        <v>713.8179739365964</v>
+        <v>713.8179739365962</v>
       </c>
       <c r="M32" t="n">
         <v>1119.996526506346</v>
       </c>
       <c r="N32" t="n">
-        <v>1518.115475157464</v>
+        <v>1518.115475157463</v>
       </c>
       <c r="O32" t="n">
         <v>1848.86027121381</v>
@@ -6724,28 +6724,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R32" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S32" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="T32" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="U32" t="n">
-        <v>1949.156730755038</v>
+        <v>1986.474607727292</v>
       </c>
       <c r="V32" t="n">
-        <v>1949.156730755038</v>
+        <v>1986.474607727292</v>
       </c>
       <c r="W32" t="n">
-        <v>1949.156730755038</v>
+        <v>1986.474607727292</v>
       </c>
       <c r="X32" t="n">
-        <v>1949.156730755038</v>
+        <v>1986.474607727292</v>
       </c>
       <c r="Y32" t="n">
-        <v>1559.017398779226</v>
+        <v>1596.33527575148</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>673.158213280044</v>
+        <v>811.3008093904469</v>
       </c>
       <c r="C33" t="n">
-        <v>498.7051839989171</v>
+        <v>636.84778010932</v>
       </c>
       <c r="D33" t="n">
-        <v>349.7707743376658</v>
+        <v>487.9133704480687</v>
       </c>
       <c r="E33" t="n">
-        <v>190.5333193322103</v>
+        <v>328.6759154426132</v>
       </c>
       <c r="F33" t="n">
-        <v>43.99876135909523</v>
+        <v>182.1413574694982</v>
       </c>
       <c r="G33" t="n">
         <v>43.99876135909523</v>
@@ -6779,16 +6779,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J33" t="n">
-        <v>43.99876135909523</v>
+        <v>97.72846777243467</v>
       </c>
       <c r="K33" t="n">
-        <v>62.27346334826848</v>
+        <v>316.181937089367</v>
       </c>
       <c r="L33" t="n">
-        <v>417.4155079642478</v>
+        <v>671.3239817053463</v>
       </c>
       <c r="M33" t="n">
-        <v>883.8287447033342</v>
+        <v>1137.737218444433</v>
       </c>
       <c r="N33" t="n">
         <v>1378.293565350461</v>
@@ -6815,16 +6815,16 @@
         <v>1544.798574726352</v>
       </c>
       <c r="V33" t="n">
-        <v>1309.64646649461</v>
+        <v>1481.149965089135</v>
       </c>
       <c r="W33" t="n">
-        <v>1055.409109766408</v>
+        <v>1226.912608360934</v>
       </c>
       <c r="X33" t="n">
-        <v>847.5576095608751</v>
+        <v>1019.061108155401</v>
       </c>
       <c r="Y33" t="n">
-        <v>841.3735503001121</v>
+        <v>811.3008093904469</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.30875967521</v>
+        <v>186.189026794163</v>
       </c>
       <c r="C34" t="n">
-        <v>389.3725767473031</v>
+        <v>186.189026794163</v>
       </c>
       <c r="D34" t="n">
-        <v>389.3725767473031</v>
+        <v>186.189026794163</v>
       </c>
       <c r="E34" t="n">
-        <v>355.3837330409299</v>
+        <v>186.189026794163</v>
       </c>
       <c r="F34" t="n">
-        <v>355.3837330409299</v>
+        <v>186.189026794163</v>
       </c>
       <c r="G34" t="n">
         <v>186.189026794163</v>
@@ -6861,16 +6861,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="K34" t="n">
-        <v>78.10704888329363</v>
+        <v>78.1070488832936</v>
       </c>
       <c r="L34" t="n">
         <v>177.2803484448426</v>
       </c>
       <c r="M34" t="n">
-        <v>292.2338108043507</v>
+        <v>292.2338108043506</v>
       </c>
       <c r="N34" t="n">
-        <v>409.8885531844246</v>
+        <v>409.8885531844245</v>
       </c>
       <c r="O34" t="n">
         <v>502.545455229807</v>
@@ -6885,25 +6885,25 @@
         <v>558.30875967521</v>
       </c>
       <c r="S34" t="n">
-        <v>558.30875967521</v>
+        <v>414.3299942437131</v>
       </c>
       <c r="T34" t="n">
-        <v>558.30875967521</v>
+        <v>186.189026794163</v>
       </c>
       <c r="U34" t="n">
-        <v>558.30875967521</v>
+        <v>186.189026794163</v>
       </c>
       <c r="V34" t="n">
-        <v>558.30875967521</v>
+        <v>186.189026794163</v>
       </c>
       <c r="W34" t="n">
-        <v>558.30875967521</v>
+        <v>186.189026794163</v>
       </c>
       <c r="X34" t="n">
-        <v>558.30875967521</v>
+        <v>186.189026794163</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.30875967521</v>
+        <v>186.189026794163</v>
       </c>
     </row>
     <row r="35">
@@ -6940,16 +6940,16 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K35" t="n">
-        <v>33.50263894448064</v>
+        <v>273.5821148104868</v>
       </c>
       <c r="L35" t="n">
-        <v>383.6190855779243</v>
+        <v>623.6985614439304</v>
       </c>
       <c r="M35" t="n">
-        <v>789.7976381476738</v>
+        <v>623.6985614439304</v>
       </c>
       <c r="N35" t="n">
-        <v>993.3093544267341</v>
+        <v>993.3093544267344</v>
       </c>
       <c r="O35" t="n">
         <v>1324.054150483081</v>
@@ -6961,22 +6961,22 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R35" t="n">
-        <v>1626.491951532494</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S35" t="n">
-        <v>1626.491951532494</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="T35" t="n">
-        <v>1626.491951532494</v>
+        <v>1372.272270718819</v>
       </c>
       <c r="U35" t="n">
-        <v>1626.491951532494</v>
+        <v>1372.272270718819</v>
       </c>
       <c r="V35" t="n">
-        <v>1626.491951532494</v>
+        <v>1372.272270718819</v>
       </c>
       <c r="W35" t="n">
-        <v>1626.491951532494</v>
+        <v>1253.026193271414</v>
       </c>
       <c r="X35" t="n">
         <v>1253.026193271414</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>367.1931232310632</v>
+        <v>387.3992021823931</v>
       </c>
       <c r="C36" t="n">
-        <v>192.7400939499362</v>
+        <v>279.3333139193517</v>
       </c>
       <c r="D36" t="n">
-        <v>192.7400939499362</v>
+        <v>279.3333139193517</v>
       </c>
       <c r="E36" t="n">
-        <v>33.50263894448064</v>
+        <v>279.3333139193517</v>
       </c>
       <c r="F36" t="n">
-        <v>33.50263894448064</v>
+        <v>279.3333139193517</v>
       </c>
       <c r="G36" t="n">
-        <v>33.50263894448064</v>
+        <v>141.1907178089487</v>
       </c>
       <c r="H36" t="n">
         <v>33.50263894448064</v>
@@ -7025,13 +7025,13 @@
         <v>660.8278592907318</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.42301622868</v>
+        <v>731.6264760353492</v>
       </c>
       <c r="N36" t="n">
-        <v>1239.410475716979</v>
+        <v>1146.221632973297</v>
       </c>
       <c r="O36" t="n">
-        <v>1239.410475716979</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="P36" t="n">
         <v>1532.144664070545</v>
@@ -7052,16 +7052,16 @@
         <v>1084.64016734787</v>
       </c>
       <c r="V36" t="n">
-        <v>1084.64016734787</v>
+        <v>849.4880591161275</v>
       </c>
       <c r="W36" t="n">
-        <v>830.4028106196686</v>
+        <v>595.2507023879259</v>
       </c>
       <c r="X36" t="n">
-        <v>622.5513104141357</v>
+        <v>387.3992021823931</v>
       </c>
       <c r="Y36" t="n">
-        <v>414.7910116491818</v>
+        <v>387.3992021823931</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="C37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="D37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="E37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="F37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="G37" t="n">
-        <v>33.50263894448064</v>
+        <v>192.9839029067432</v>
       </c>
       <c r="H37" t="n">
         <v>33.50263894448064</v>
@@ -7098,7 +7098,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K37" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L37" t="n">
         <v>166.784226030228</v>
@@ -7122,25 +7122,25 @@
         <v>390.9022968556744</v>
       </c>
       <c r="S37" t="n">
-        <v>261.492189842498</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="T37" t="n">
-        <v>261.492189842498</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="U37" t="n">
-        <v>261.492189842498</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="V37" t="n">
-        <v>261.492189842498</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="W37" t="n">
-        <v>261.492189842498</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="X37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>451.9009565059945</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C38" t="n">
-        <v>451.9009565059945</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D38" t="n">
-        <v>451.9009565059945</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E38" t="n">
-        <v>451.9009565059945</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F38" t="n">
-        <v>451.9009565059945</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G38" t="n">
         <v>33.50263894448064</v>
@@ -7177,22 +7177,22 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K38" t="n">
-        <v>33.50263894448064</v>
+        <v>273.5821148104868</v>
       </c>
       <c r="L38" t="n">
-        <v>383.6190855779243</v>
+        <v>273.5821148104868</v>
       </c>
       <c r="M38" t="n">
-        <v>789.7976381476738</v>
+        <v>679.7606673802361</v>
       </c>
       <c r="N38" t="n">
-        <v>1099.778502692426</v>
+        <v>1077.879616031354</v>
       </c>
       <c r="O38" t="n">
-        <v>1430.523298748773</v>
+        <v>1408.6244120877</v>
       </c>
       <c r="P38" t="n">
-        <v>1675.131947224032</v>
+        <v>1653.23306056296</v>
       </c>
       <c r="Q38" t="n">
         <v>1675.131947224032</v>
@@ -7204,22 +7204,22 @@
         <v>1592.809002906597</v>
       </c>
       <c r="T38" t="n">
-        <v>1592.809002906597</v>
+        <v>1372.272270718819</v>
       </c>
       <c r="U38" t="n">
-        <v>1592.809002906597</v>
+        <v>1372.272270718819</v>
       </c>
       <c r="V38" t="n">
-        <v>1592.809002906597</v>
+        <v>1183.707569245494</v>
       </c>
       <c r="W38" t="n">
-        <v>1592.809002906597</v>
+        <v>1183.707569245494</v>
       </c>
       <c r="X38" t="n">
-        <v>1228.640128545928</v>
+        <v>810.2418109844141</v>
       </c>
       <c r="Y38" t="n">
-        <v>838.5007965701163</v>
+        <v>420.1024790086024</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>252.4840459073274</v>
+        <v>759.5583561790492</v>
       </c>
       <c r="C39" t="n">
-        <v>252.4840459073274</v>
+        <v>585.1053268979222</v>
       </c>
       <c r="D39" t="n">
-        <v>103.5496362460761</v>
+        <v>585.1053268979222</v>
       </c>
       <c r="E39" t="n">
-        <v>103.5496362460761</v>
+        <v>425.8678718924667</v>
       </c>
       <c r="F39" t="n">
-        <v>103.5496362460761</v>
+        <v>279.3333139193517</v>
       </c>
       <c r="G39" t="n">
-        <v>103.5496362460761</v>
+        <v>141.1907178089487</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5496362460761</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="I39" t="n">
         <v>33.50263894448064</v>
@@ -7256,22 +7256,22 @@
         <v>87.23234535782009</v>
       </c>
       <c r="K39" t="n">
-        <v>87.23234535782009</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="L39" t="n">
-        <v>167.2844138973234</v>
+        <v>418.9764176347754</v>
       </c>
       <c r="M39" t="n">
-        <v>581.8795708352714</v>
+        <v>833.5715745727233</v>
       </c>
       <c r="N39" t="n">
-        <v>996.4747277732192</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O39" t="n">
-        <v>1382.397758870467</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="P39" t="n">
-        <v>1675.131947224032</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q39" t="n">
         <v>1675.131947224032</v>
@@ -7283,22 +7283,22 @@
         <v>1512.640704056572</v>
       </c>
       <c r="T39" t="n">
-        <v>1512.640704056572</v>
+        <v>1312.825086314969</v>
       </c>
       <c r="U39" t="n">
-        <v>1284.455785089473</v>
+        <v>1084.64016734787</v>
       </c>
       <c r="V39" t="n">
-        <v>1049.30367685773</v>
+        <v>1084.64016734787</v>
       </c>
       <c r="W39" t="n">
-        <v>795.0663201295283</v>
+        <v>830.4028106196686</v>
       </c>
       <c r="X39" t="n">
-        <v>587.2148199239955</v>
+        <v>759.5583561790492</v>
       </c>
       <c r="Y39" t="n">
-        <v>379.4545211590416</v>
+        <v>759.5583561790492</v>
       </c>
     </row>
     <row r="40">
@@ -7335,7 +7335,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K40" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L40" t="n">
         <v>166.784226030228</v>
@@ -7353,28 +7353,28 @@
         <v>547.8126372605955</v>
       </c>
       <c r="Q40" t="n">
-        <v>502.0749996710317</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="R40" t="n">
-        <v>502.0749996710317</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="S40" t="n">
-        <v>284.3898967306898</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="T40" t="n">
-        <v>284.3898967306898</v>
+        <v>390.9022968556744</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3898967306898</v>
+        <v>261.492189842498</v>
       </c>
       <c r="V40" t="n">
-        <v>284.3898967306898</v>
+        <v>261.492189842498</v>
       </c>
       <c r="W40" t="n">
-        <v>284.3898967306898</v>
+        <v>261.492189842498</v>
       </c>
       <c r="X40" t="n">
-        <v>254.2952180880108</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="Y40" t="n">
         <v>33.50263894448064</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>392.8679864639493</v>
+        <v>777.5565901494754</v>
       </c>
       <c r="C41" t="n">
-        <v>33.50263894448064</v>
+        <v>777.5565901494754</v>
       </c>
       <c r="D41" t="n">
-        <v>33.50263894448064</v>
+        <v>419.2908915427249</v>
       </c>
       <c r="E41" t="n">
         <v>33.50263894448064</v>
@@ -7411,22 +7411,22 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J41" t="n">
-        <v>33.50263894448064</v>
+        <v>113.125929022532</v>
       </c>
       <c r="K41" t="n">
-        <v>189.9732033133744</v>
+        <v>295.4810014715593</v>
       </c>
       <c r="L41" t="n">
-        <v>540.0896499468181</v>
+        <v>295.4810014715593</v>
       </c>
       <c r="M41" t="n">
-        <v>946.2682025165675</v>
+        <v>701.6595540413086</v>
       </c>
       <c r="N41" t="n">
-        <v>1344.387151167685</v>
+        <v>1099.778502692426</v>
       </c>
       <c r="O41" t="n">
-        <v>1675.131947224032</v>
+        <v>1430.523298748773</v>
       </c>
       <c r="P41" t="n">
         <v>1675.131947224032</v>
@@ -7438,25 +7438,25 @@
         <v>1592.809002906597</v>
       </c>
       <c r="S41" t="n">
-        <v>1406.730130907835</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="T41" t="n">
-        <v>1406.730130907835</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="U41" t="n">
-        <v>1152.933584789151</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="V41" t="n">
-        <v>1152.933584789151</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="W41" t="n">
-        <v>1152.933584789151</v>
+        <v>1541.161680386367</v>
       </c>
       <c r="X41" t="n">
-        <v>779.4678265280711</v>
+        <v>1167.695922125287</v>
       </c>
       <c r="Y41" t="n">
-        <v>779.4678265280711</v>
+        <v>777.5565901494754</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>379.4545211590416</v>
+        <v>627.9677840346355</v>
       </c>
       <c r="C42" t="n">
-        <v>330.8826900603392</v>
+        <v>627.9677840346355</v>
       </c>
       <c r="D42" t="n">
-        <v>330.8826900603392</v>
+        <v>508.6177662264026</v>
       </c>
       <c r="E42" t="n">
-        <v>171.6452350548837</v>
+        <v>349.3803112209471</v>
       </c>
       <c r="F42" t="n">
-        <v>171.6452350548837</v>
+        <v>349.3803112209471</v>
       </c>
       <c r="G42" t="n">
-        <v>33.50263894448064</v>
+        <v>211.2377151105441</v>
       </c>
       <c r="H42" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="I42" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J42" t="n">
-        <v>33.50263894448064</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K42" t="n">
-        <v>251.9561082614131</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="L42" t="n">
-        <v>607.0981528773923</v>
+        <v>442.3743899737993</v>
       </c>
       <c r="M42" t="n">
-        <v>612.4633765039789</v>
+        <v>731.6264760353492</v>
       </c>
       <c r="N42" t="n">
-        <v>853.4874446197318</v>
+        <v>1146.221632973297</v>
       </c>
       <c r="O42" t="n">
-        <v>1239.410475716979</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="P42" t="n">
         <v>1532.144664070545</v>
@@ -7517,25 +7517,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S42" t="n">
-        <v>1512.640704056572</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="T42" t="n">
-        <v>1512.640704056572</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="U42" t="n">
-        <v>1284.455785089473</v>
+        <v>1446.947028256933</v>
       </c>
       <c r="V42" t="n">
-        <v>1049.30367685773</v>
+        <v>1211.79492002519</v>
       </c>
       <c r="W42" t="n">
-        <v>795.0663201295283</v>
+        <v>1211.79492002519</v>
       </c>
       <c r="X42" t="n">
-        <v>587.2148199239955</v>
+        <v>1003.943419819657</v>
       </c>
       <c r="Y42" t="n">
-        <v>379.4545211590416</v>
+        <v>796.1831210547036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="C43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="D43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="E43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="F43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="G43" t="n">
-        <v>33.50263894448064</v>
+        <v>192.9839029067432</v>
       </c>
       <c r="H43" t="n">
         <v>33.50263894448064</v>
@@ -7572,7 +7572,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K43" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L43" t="n">
         <v>166.784226030228</v>
@@ -7593,28 +7593,28 @@
         <v>547.8126372605955</v>
       </c>
       <c r="R43" t="n">
-        <v>390.9022968556744</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="S43" t="n">
-        <v>390.9022968556744</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T43" t="n">
-        <v>162.7613294061242</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="U43" t="n">
-        <v>162.7613294061242</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="V43" t="n">
-        <v>162.7613294061242</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="W43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="X43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>799.5935586559365</v>
+        <v>1261.746115563026</v>
       </c>
       <c r="C44" t="n">
-        <v>783.5455964741523</v>
+        <v>892.7835986226141</v>
       </c>
       <c r="D44" t="n">
-        <v>783.5455964741523</v>
+        <v>892.7835986226141</v>
       </c>
       <c r="E44" t="n">
-        <v>783.5455964741523</v>
+        <v>506.9953460243699</v>
       </c>
       <c r="F44" t="n">
-        <v>783.5455964741523</v>
+        <v>96.00944123476233</v>
       </c>
       <c r="G44" t="n">
-        <v>365.1472789126383</v>
+        <v>96.00944123476233</v>
       </c>
       <c r="H44" t="n">
         <v>33.50263894448064</v>
@@ -7648,22 +7648,22 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J44" t="n">
-        <v>113.125929022532</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K44" t="n">
-        <v>353.2054048885382</v>
+        <v>273.5821148104868</v>
       </c>
       <c r="L44" t="n">
-        <v>703.3218515219819</v>
+        <v>623.6985614439304</v>
       </c>
       <c r="M44" t="n">
-        <v>1109.500404091731</v>
+        <v>1029.87711401368</v>
       </c>
       <c r="N44" t="n">
-        <v>1507.619352742849</v>
+        <v>1427.996062664798</v>
       </c>
       <c r="O44" t="n">
-        <v>1675.131947224032</v>
+        <v>1430.523298748773</v>
       </c>
       <c r="P44" t="n">
         <v>1675.131947224032</v>
@@ -7675,25 +7675,25 @@
         <v>1592.809002906597</v>
       </c>
       <c r="S44" t="n">
-        <v>1406.730130907835</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="T44" t="n">
-        <v>1186.193398720058</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="U44" t="n">
-        <v>1186.193398720058</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="V44" t="n">
-        <v>1186.193398720058</v>
+        <v>1261.746115563026</v>
       </c>
       <c r="W44" t="n">
-        <v>1186.193398720058</v>
+        <v>1261.746115563026</v>
       </c>
       <c r="X44" t="n">
-        <v>1186.193398720058</v>
+        <v>1261.746115563026</v>
       </c>
       <c r="Y44" t="n">
-        <v>1186.193398720058</v>
+        <v>1261.746115563026</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>785.1337550221751</v>
+        <v>829.6053534806446</v>
       </c>
       <c r="C45" t="n">
-        <v>626.3516576947054</v>
+        <v>655.1523241995176</v>
       </c>
       <c r="D45" t="n">
-        <v>477.4172480334542</v>
+        <v>655.1523241995176</v>
       </c>
       <c r="E45" t="n">
-        <v>318.1797930279987</v>
+        <v>495.9148691940621</v>
       </c>
       <c r="F45" t="n">
-        <v>171.6452350548837</v>
+        <v>349.3803112209471</v>
       </c>
       <c r="G45" t="n">
-        <v>33.50263894448064</v>
+        <v>211.2377151105441</v>
       </c>
       <c r="H45" t="n">
-        <v>33.50263894448064</v>
+        <v>103.5496362460761</v>
       </c>
       <c r="I45" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J45" t="n">
-        <v>33.50263894448064</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K45" t="n">
-        <v>251.9561082614131</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="L45" t="n">
-        <v>607.0981528773923</v>
+        <v>660.8278592907318</v>
       </c>
       <c r="M45" t="n">
-        <v>1021.69330981534</v>
+        <v>731.6264760353492</v>
       </c>
       <c r="N45" t="n">
-        <v>1041.609179862349</v>
+        <v>1146.221632973297</v>
       </c>
       <c r="O45" t="n">
-        <v>1427.532210959596</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="P45" t="n">
         <v>1532.144664070545</v>
@@ -7751,28 +7751,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R45" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="T45" t="n">
-        <v>1475.31632948243</v>
+        <v>1459.818345993868</v>
       </c>
       <c r="U45" t="n">
-        <v>1247.131410515331</v>
+        <v>1459.818345993868</v>
       </c>
       <c r="V45" t="n">
-        <v>1247.131410515331</v>
+        <v>1459.818345993868</v>
       </c>
       <c r="W45" t="n">
-        <v>992.894053787129</v>
+        <v>1205.580989265666</v>
       </c>
       <c r="X45" t="n">
-        <v>992.894053787129</v>
+        <v>1205.580989265666</v>
       </c>
       <c r="Y45" t="n">
-        <v>785.1337550221751</v>
+        <v>997.8206905007125</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.392586442391</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="C46" t="n">
-        <v>180.392586442391</v>
+        <v>499.7039321014937</v>
       </c>
       <c r="D46" t="n">
-        <v>180.392586442391</v>
+        <v>349.5872926891579</v>
       </c>
       <c r="E46" t="n">
-        <v>180.392586442391</v>
+        <v>349.5872926891579</v>
       </c>
       <c r="F46" t="n">
-        <v>33.50263894448064</v>
+        <v>202.6973451912476</v>
       </c>
       <c r="G46" t="n">
         <v>33.50263894448064</v>
@@ -7809,7 +7809,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K46" t="n">
-        <v>67.61092646867904</v>
+        <v>67.61092646867903</v>
       </c>
       <c r="L46" t="n">
         <v>166.784226030228</v>
@@ -7839,19 +7839,19 @@
         <v>547.8126372605955</v>
       </c>
       <c r="U46" t="n">
-        <v>258.6283956796125</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="V46" t="n">
-        <v>258.6283956796125</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="W46" t="n">
-        <v>258.6283956796125</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="X46" t="n">
-        <v>180.392586442391</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.392586442391</v>
+        <v>547.8126372605955</v>
       </c>
     </row>
   </sheetData>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K11" t="n">
-        <v>81.64089149439081</v>
+        <v>99.99675554273036</v>
       </c>
       <c r="L11" t="n">
-        <v>195.209768335715</v>
+        <v>64.00823815303264</v>
       </c>
       <c r="M11" t="n">
-        <v>170.4336974434447</v>
+        <v>39.23216726076242</v>
       </c>
       <c r="N11" t="n">
-        <v>35.20657223913801</v>
+        <v>166.4081024218204</v>
       </c>
       <c r="O11" t="n">
-        <v>115.8443571761935</v>
+        <v>177.9160588632594</v>
       </c>
       <c r="P11" t="n">
-        <v>74.71926526718062</v>
+        <v>205.920795449863</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K12" t="n">
-        <v>43.80516699547518</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L12" t="n">
-        <v>12.11100730752055</v>
+        <v>143.3125374902029</v>
       </c>
       <c r="M12" t="n">
-        <v>120.4810404514765</v>
+        <v>100.3639999999527</v>
       </c>
       <c r="N12" t="n">
-        <v>111.0844897311586</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>135.2426059268385</v>
+        <v>4.041075744156245</v>
       </c>
       <c r="P12" t="n">
-        <v>22.77166929290145</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.8472187735947</v>
+        <v>65.64568859091233</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8941,13 +8941,13 @@
         <v>166.4081024218203</v>
       </c>
       <c r="O14" t="n">
-        <v>46.7145286805771</v>
+        <v>92.18742120128098</v>
       </c>
       <c r="P14" t="n">
         <v>74.71926526718062</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.2432889728388</v>
+        <v>104.7703964521349</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>43.80516699547518</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L15" t="n">
-        <v>143.3125374902029</v>
+        <v>12.11100730752055</v>
       </c>
       <c r="M15" t="n">
-        <v>100.3639999999527</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>111.0844897311586</v>
       </c>
       <c r="O15" t="n">
         <v>4.041075744156245</v>
       </c>
       <c r="P15" t="n">
-        <v>153.9731994755837</v>
+        <v>153.9731994755838</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.8472187735947</v>
+        <v>131.8542983218438</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>88.66904943666837</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>81.64089149439081</v>
@@ -9175,16 +9175,16 @@
         <v>39.23216726076242</v>
       </c>
       <c r="N17" t="n">
-        <v>166.4081024218203</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O17" t="n">
-        <v>177.9160588632594</v>
+        <v>115.8443571761936</v>
       </c>
       <c r="P17" t="n">
-        <v>200.6197235232899</v>
+        <v>205.920795449863</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,22 +9245,22 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K18" t="n">
-        <v>43.80516699547518</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L18" t="n">
-        <v>143.3125374902029</v>
+        <v>112.4750073074733</v>
       </c>
       <c r="M18" t="n">
-        <v>120.4810404514765</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>111.0844897311586</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>4.041075744156245</v>
       </c>
       <c r="P18" t="n">
-        <v>22.77166929290145</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q18" t="n">
         <v>196.8472187735947</v>
@@ -9406,19 +9406,19 @@
         <v>81.64089149439081</v>
       </c>
       <c r="L20" t="n">
-        <v>195.209768335715</v>
+        <v>133.1380666486491</v>
       </c>
       <c r="M20" t="n">
-        <v>39.23216726076242</v>
+        <v>170.4336974434447</v>
       </c>
       <c r="N20" t="n">
-        <v>35.20657223913801</v>
+        <v>166.4081024218204</v>
       </c>
       <c r="O20" t="n">
-        <v>177.9160588632594</v>
+        <v>46.7145286805771</v>
       </c>
       <c r="P20" t="n">
-        <v>143.849093762797</v>
+        <v>74.71926526718062</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9479,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>144.1691669954279</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L21" t="n">
         <v>12.11100730752055</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>125.7821123780494</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.2426059268385</v>
+        <v>135.2426059268386</v>
       </c>
       <c r="P21" t="n">
-        <v>153.9731994755837</v>
+        <v>74.28265637694214</v>
       </c>
       <c r="Q21" t="n">
         <v>196.8472187735947</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>206.4211619857846</v>
+        <v>260.6935927063296</v>
       </c>
       <c r="Q24" t="n">
         <v>65.64568859091233</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>313.0711693698516</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>222.8691685444641</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091233</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>62.26446193403399</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>222.8691685444641</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.66904943666836</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K35" t="n">
-        <v>81.64089149439079</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>39.23216726076242</v>
       </c>
       <c r="N35" t="n">
-        <v>240.773962420007</v>
+        <v>408.5508075753037</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>413.3635690013751</v>
+        <v>66.0943364828595</v>
       </c>
       <c r="N36" t="n">
-        <v>145.5268580215062</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O36" t="n">
-        <v>4.041075744156217</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>88.66904943666836</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K38" t="n">
-        <v>81.64089149439079</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>64.00823815303264</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>348.3185566277767</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>104.7703964521349</v>
+        <v>126.8904839885718</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>43.80516699547515</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>92.97168259994812</v>
+        <v>126.5459597923922</v>
       </c>
       <c r="M39" t="n">
-        <v>413.363569001375</v>
+        <v>413.3635690013751</v>
       </c>
       <c r="N39" t="n">
-        <v>398.6659463544842</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>239.6919666144855</v>
+        <v>265.8379343721962</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>64.00823815303264</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>74.71926526718059</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>104.7703964521349</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>286.754406499963</v>
       </c>
       <c r="N42" t="n">
-        <v>223.3416142108529</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11311,10 +11311,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>215.9191695706609</v>
+        <v>49.26729240176434</v>
       </c>
       <c r="P44" t="n">
-        <v>74.71926526718059</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>104.7703964521349</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>413.3635690013751</v>
+        <v>66.0943364828595</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>128.4408138494149</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>234.0713615883252</v>
       </c>
       <c r="D11" t="n">
-        <v>320.6204487100375</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>250.7288398895795</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>275.6745155590291</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0128042032164</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H11" t="n">
         <v>328.3281935684761</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>53.01655309609123</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T11" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U11" t="n">
-        <v>120.0570504748153</v>
+        <v>217.1959877468521</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.33165346718502</v>
+        <v>50.97087586496072</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23348,7 +23348,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.86768221070156</v>
       </c>
       <c r="G12" t="n">
         <v>136.761170149299</v>
@@ -23387,10 +23387,10 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S12" t="n">
-        <v>29.66480055310345</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T12" t="n">
-        <v>66.61593138150414</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U12" t="n">
         <v>225.903069777428</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>74.57145502079516</v>
       </c>
       <c r="Y12" t="n">
-        <v>90.12038799239774</v>
+        <v>74.48116559462204</v>
       </c>
     </row>
     <row r="13">
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>17.41394283553004</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>29.85874023802462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H13" t="n">
-        <v>26.68492113995759</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I13" t="n">
         <v>140.7683627807171</v>
@@ -23466,25 +23466,25 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S13" t="n">
-        <v>215.5082519109386</v>
+        <v>84.30672172825624</v>
       </c>
       <c r="T13" t="n">
         <v>225.8595577750547</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2923991651731</v>
+        <v>170.7300913802665</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>120.9361131411457</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>94.50812520635483</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.38312316941247</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>283.0128042032164</v>
       </c>
       <c r="H14" t="n">
-        <v>328.3281935684761</v>
+        <v>197.1266633857938</v>
       </c>
       <c r="I14" t="n">
-        <v>168.5152279305241</v>
+        <v>134.4526350198787</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>184.2180832787735</v>
+        <v>53.01655309609123</v>
       </c>
       <c r="T14" t="n">
-        <v>87.12983468321721</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U14" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V14" t="n">
-        <v>293.6896655594895</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.0364084733713</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>35.33165346718502</v>
       </c>
       <c r="C15" t="n">
-        <v>41.50696880563342</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>42.08277267049434</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23630,19 +23630,19 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U15" t="n">
-        <v>94.70153959474567</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V15" t="n">
         <v>101.5990569667429</v>
       </c>
       <c r="W15" t="n">
-        <v>136.132675376013</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>74.48116559462204</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>51.68451331372123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>155.3412370008718</v>
       </c>
       <c r="S16" t="n">
-        <v>215.5082519109386</v>
+        <v>145.2262053397001</v>
       </c>
       <c r="T16" t="n">
-        <v>94.65802759237235</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U16" t="n">
         <v>155.0908689824908</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>120.9361131411457</v>
       </c>
       <c r="W16" t="n">
         <v>155.3214681539087</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>251.5323114807983</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>266.3680622873551</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>372.813452831066</v>
       </c>
       <c r="G17" t="n">
-        <v>283.0128042032164</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H17" t="n">
         <v>328.3281935684761</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>81.49971487426107</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>53.01655309609123</v>
       </c>
       <c r="T17" t="n">
-        <v>87.12983468321721</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U17" t="n">
         <v>251.2585806574976</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>255.0364084733713</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>50.97087586496077</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>16.24353538195643</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>26.44355027271862</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S18" t="n">
-        <v>109.3052591696037</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T18" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U18" t="n">
-        <v>94.70153959474567</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V18" t="n">
-        <v>101.5990569667429</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>120.4934529782373</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>74.57145502079516</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23910,7 +23910,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I19" t="n">
-        <v>140.7683627807171</v>
+        <v>9.56683259803475</v>
       </c>
       <c r="J19" t="n">
         <v>58.84201380359814</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R19" t="n">
-        <v>155.3412370008718</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S19" t="n">
-        <v>215.5082519109386</v>
+        <v>84.30672172825624</v>
       </c>
       <c r="T19" t="n">
-        <v>94.65802759237235</v>
+        <v>110.297249990148</v>
       </c>
       <c r="U19" t="n">
-        <v>216.0103525939345</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V19" t="n">
-        <v>120.9361131411457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>155.3214681539087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>250.7288398895795</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>283.0128042032164</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H20" t="n">
         <v>197.1266633857938</v>
@@ -24022,19 +24022,19 @@
         <v>184.2180832787735</v>
       </c>
       <c r="T20" t="n">
-        <v>218.3313648658995</v>
+        <v>87.12983468321721</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2585806574976</v>
+        <v>217.1959877468522</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>315.1783758067675</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>238.5295704957867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>41.50696880563342</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>148.6939707463177</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>13.86768221070156</v>
       </c>
       <c r="G21" t="n">
         <v>136.761170149299</v>
       </c>
       <c r="H21" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>69.34652732857948</v>
@@ -24101,7 +24101,7 @@
         <v>160.8663307357858</v>
       </c>
       <c r="T21" t="n">
-        <v>66.61593138150414</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U21" t="n">
         <v>225.903069777428</v>
@@ -24113,10 +24113,10 @@
         <v>120.4934529782373</v>
       </c>
       <c r="X21" t="n">
-        <v>90.21067741857085</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>74.48116559462204</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>96.96477452738937</v>
+        <v>51.68451331372121</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5027591842993</v>
+        <v>36.30122900161697</v>
       </c>
       <c r="H22" t="n">
         <v>157.8864513226399</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R22" t="n">
-        <v>24.13970681818947</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S22" t="n">
-        <v>84.30672172825624</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T22" t="n">
-        <v>225.8595577750547</v>
+        <v>94.65802759237235</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2923991651731</v>
+        <v>155.0908689824908</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.38312316941247</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S23" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>15.78492960541979</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>339.7145374036903</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24293,10 +24293,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>30.04996963333943</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>140.2185524854866</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.5027591842993</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R25" t="n">
         <v>155.3412370008718</v>
@@ -24420,13 +24420,13 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2923991651731</v>
+        <v>63.64849916881047</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>281.7381929854337</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S26" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>76.70349533221108</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>56.49380000735852</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>191.2524348650639</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>169.7884636085806</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.4138272884638</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,13 +24618,13 @@
         <v>167.5027591842993</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I28" t="n">
         <v>140.7683627807171</v>
       </c>
       <c r="J28" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2923991651731</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>63.64849916881047</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.2143343858988</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>30.6823483395364</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S29" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>187.2031401085452</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24767,10 +24767,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>54.49126471576507</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.761170149299</v>
@@ -24779,7 +24779,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>43.00393466030044</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>41.82593186336882</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,13 +24855,13 @@
         <v>167.5027591842993</v>
       </c>
       <c r="H31" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>140.7683627807171</v>
       </c>
       <c r="J31" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T31" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.835156221256625</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24934,7 +24934,7 @@
         <v>414.2143343858988</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I32" t="n">
         <v>168.5152279305241</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S32" t="n">
         <v>184.2180832787735</v>
@@ -24973,7 +24973,7 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U32" t="n">
-        <v>84.48477170403285</v>
+        <v>39.92975503230318</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>106.6111980758233</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>169.7884636085806</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>199.560477109149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7850073772597</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H34" t="n">
         <v>157.8864513226399</v>
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S34" t="n">
-        <v>215.5082519109386</v>
+        <v>72.96927413375667</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2923991651731</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>33.34611913963806</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>184.2180832787735</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2585806574976</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>231.1873520444816</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>119.4112741159299</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>65.72326960790474</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>69.34652732857948</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>140.7683627807171</v>
       </c>
       <c r="J37" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>87.39224596789387</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T37" t="n">
         <v>225.8595577750547</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2923991651731</v>
+        <v>257.8559483400305</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H38" t="n">
         <v>328.3281935684761</v>
@@ -25444,19 +25444,19 @@
         <v>184.2180832787735</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>141.0732040115428</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>9.203915061407258</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>40.83241315067028</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>135.6369753072643</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25572,7 +25572,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J40" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R40" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T40" t="n">
         <v>225.8595577750547</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2923991651731</v>
+        <v>158.1763932221284</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>195.9159235327849</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>9.501197726733551</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T41" t="n">
         <v>218.3313648658995</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>298.1101194223857</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>124.6223862006004</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>29.28854793448818</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T42" t="n">
         <v>197.8174615641865</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5027591842993</v>
+        <v>42.08186994904025</v>
       </c>
       <c r="H43" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>140.7683627807171</v>
       </c>
       <c r="J43" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S43" t="n">
         <v>215.5082519109386</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>158.5568947795638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>349.3854092110412</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.4464593010972</v>
       </c>
       <c r="I44" t="n">
         <v>168.5152279305241</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U44" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>15.51422263412073</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>160.8663307357858</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>48.65823256504871</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>119.6192029911171</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.8864513226399</v>
@@ -26046,7 +26046,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J46" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2923991651731</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>148.2562042441878</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>392738.7723686377</v>
+        <v>392738.7723686378</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>392738.7723686377</v>
+        <v>392738.7723686378</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676489.7967680608</v>
+        <v>676489.7967680605</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676489.7967680608</v>
+        <v>676489.7967680605</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>587592.755185631</v>
+        <v>587592.7551856308</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>587592.755185631</v>
+        <v>587592.7551856309</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>587592.7551856308</v>
+        <v>587592.7551856309</v>
       </c>
     </row>
     <row r="16">
@@ -26319,25 +26319,25 @@
         <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="E2" t="n">
-        <v>193820.8397526652</v>
+        <v>193820.8397526653</v>
       </c>
       <c r="F2" t="n">
-        <v>193820.8397526652</v>
+        <v>193820.8397526653</v>
       </c>
       <c r="G2" t="n">
-        <v>193820.8397526652</v>
+        <v>193820.8397526653</v>
       </c>
       <c r="H2" t="n">
         <v>193820.8397526652</v>
       </c>
       <c r="I2" t="n">
-        <v>317743.3321614179</v>
+        <v>317743.3321614178</v>
       </c>
       <c r="J2" t="n">
-        <v>317743.3321614179</v>
+        <v>317743.3321614178</v>
       </c>
       <c r="K2" t="n">
         <v>317743.3321614179</v>
@@ -26346,13 +26346,13 @@
         <v>317743.3321614179</v>
       </c>
       <c r="M2" t="n">
+        <v>278919.3561635303</v>
+      </c>
+      <c r="N2" t="n">
         <v>278919.3561635302</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>278919.3561635301</v>
-      </c>
-      <c r="O2" t="n">
-        <v>278919.3561635302</v>
       </c>
       <c r="P2" t="n">
         <v>278919.3561635301</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>111363.1906344404</v>
+        <v>111363.1906344405</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>43975.03241952816</v>
+        <v>43975.03241952815</v>
       </c>
       <c r="F4" t="n">
         <v>43975.03241952816</v>
       </c>
       <c r="G4" t="n">
+        <v>43975.03241952815</v>
+      </c>
+      <c r="H4" t="n">
         <v>43975.03241952816</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43975.03241952815</v>
       </c>
       <c r="I4" t="n">
         <v>104969.0231735148</v>
       </c>
       <c r="J4" t="n">
-        <v>104969.0231735147</v>
+        <v>104969.0231735148</v>
       </c>
       <c r="K4" t="n">
         <v>104969.0231735147</v>
@@ -26450,16 +26450,16 @@
         <v>104969.0231735147</v>
       </c>
       <c r="M4" t="n">
+        <v>85860.06896335147</v>
+      </c>
+      <c r="N4" t="n">
+        <v>85860.06896335148</v>
+      </c>
+      <c r="O4" t="n">
+        <v>85860.06896335147</v>
+      </c>
+      <c r="P4" t="n">
         <v>85860.06896335146</v>
-      </c>
-      <c r="N4" t="n">
-        <v>85860.06896335146</v>
-      </c>
-      <c r="O4" t="n">
-        <v>85860.06896335146</v>
-      </c>
-      <c r="P4" t="n">
-        <v>85860.06896335148</v>
       </c>
     </row>
     <row r="5">
@@ -26502,16 +26502,16 @@
         <v>39341.19670197842</v>
       </c>
       <c r="M5" t="n">
-        <v>31364.14366687134</v>
+        <v>31364.14366687133</v>
       </c>
       <c r="N5" t="n">
-        <v>31364.14366687134</v>
+        <v>31364.14366687133</v>
       </c>
       <c r="O5" t="n">
-        <v>31364.14366687134</v>
+        <v>31364.14366687133</v>
       </c>
       <c r="P5" t="n">
-        <v>31364.14366687134</v>
+        <v>31364.14366687133</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68978.9475830813</v>
+        <v>69018.66978389432</v>
       </c>
       <c r="C6" t="n">
-        <v>68978.94758308136</v>
+        <v>69018.66978389432</v>
       </c>
       <c r="D6" t="n">
-        <v>68978.94758308142</v>
+        <v>69018.66978389426</v>
       </c>
       <c r="E6" t="n">
-        <v>-133494.0367918284</v>
+        <v>-121998.1472009779</v>
       </c>
       <c r="F6" t="n">
-        <v>123193.4055724635</v>
+        <v>134689.2951633139</v>
       </c>
       <c r="G6" t="n">
-        <v>123193.4055724634</v>
+        <v>134689.2951633139</v>
       </c>
       <c r="H6" t="n">
-        <v>123193.4055724635</v>
+        <v>134689.2951633139</v>
       </c>
       <c r="I6" t="n">
-        <v>54253.6106913339</v>
+        <v>61288.29055546915</v>
       </c>
       <c r="J6" t="n">
-        <v>165616.8013257743</v>
+        <v>172651.4811899095</v>
       </c>
       <c r="K6" t="n">
-        <v>165616.8013257743</v>
+        <v>172651.4811899097</v>
       </c>
       <c r="L6" t="n">
-        <v>165616.8013257743</v>
+        <v>172651.4811899097</v>
       </c>
       <c r="M6" t="n">
-        <v>152325.8735332415</v>
+        <v>160758.2165333009</v>
       </c>
       <c r="N6" t="n">
-        <v>152325.8735332415</v>
+        <v>160758.2165333008</v>
       </c>
       <c r="O6" t="n">
-        <v>152325.8735332415</v>
+        <v>160758.2165333008</v>
       </c>
       <c r="P6" t="n">
-        <v>152325.8735332415</v>
+        <v>160758.2165333008</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>418.7829868060079</v>
+        <v>418.7829868060081</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J26" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K26" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L26" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M26" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N26" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O26" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P26" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q26" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R26" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S26" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T26" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H27" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I27" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J27" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K27" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L27" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M27" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N27" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O27" t="n">
         <v>138.5551687002882</v>
@@ -33046,10 +33046,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R27" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S27" t="n">
         <v>10.81684036805206</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H28" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I28" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J28" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K28" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L28" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M28" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N28" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O28" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P28" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R28" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S28" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T28" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J29" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K29" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L29" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M29" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N29" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O29" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P29" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q29" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R29" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S29" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T29" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H30" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I30" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J30" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K30" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L30" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M30" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N30" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O30" t="n">
         <v>138.5551687002882</v>
@@ -33283,10 +33283,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R30" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S30" t="n">
         <v>10.81684036805206</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H31" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I31" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J31" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K31" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L31" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M31" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N31" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O31" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P31" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R31" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S31" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T31" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J32" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K32" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L32" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M32" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N32" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O32" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P32" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q32" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R32" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S32" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T32" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H33" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I33" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J33" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K33" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L33" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M33" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N33" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O33" t="n">
         <v>138.5551687002882</v>
@@ -33520,10 +33520,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R33" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S33" t="n">
         <v>10.81684036805206</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H34" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I34" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J34" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K34" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L34" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M34" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N34" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O34" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P34" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R34" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S34" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T34" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,40 +33657,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J35" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K35" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L35" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M35" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N35" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O35" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P35" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q35" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R35" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S35" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T35" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H36" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I36" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J36" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K36" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L36" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M36" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N36" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O36" t="n">
         <v>138.5551687002882</v>
@@ -33757,10 +33757,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R36" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S36" t="n">
         <v>10.81684036805206</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H37" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I37" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J37" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K37" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L37" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M37" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N37" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O37" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P37" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R37" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S37" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T37" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J38" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K38" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L38" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M38" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N38" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O38" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P38" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q38" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R38" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S38" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T38" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H39" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I39" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J39" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K39" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M39" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N39" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O39" t="n">
         <v>138.5551687002882</v>
@@ -33994,10 +33994,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R39" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S39" t="n">
         <v>10.81684036805206</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H40" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I40" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J40" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K40" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L40" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M40" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N40" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O40" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P40" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R40" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S40" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T40" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J41" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K41" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L41" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M41" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N41" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O41" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P41" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q41" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R41" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S41" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T41" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H42" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I42" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J42" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K42" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L42" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M42" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N42" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O42" t="n">
         <v>138.5551687002882</v>
@@ -34231,10 +34231,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R42" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S42" t="n">
         <v>10.81684036805206</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H43" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I43" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K43" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L43" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M43" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N43" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O43" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P43" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R43" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S43" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T43" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,40 +34368,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J44" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K44" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L44" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M44" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N44" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O44" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P44" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q44" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R44" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S44" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T44" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H45" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I45" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J45" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K45" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L45" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M45" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N45" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O45" t="n">
         <v>138.5551687002882</v>
@@ -34468,10 +34468,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R45" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S45" t="n">
         <v>10.81684036805206</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H46" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I46" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K46" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L46" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M46" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N46" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O46" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P46" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R46" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S46" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T46" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>80.42756573540539</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>18.35586404833954</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>69.12982849561641</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Q11" t="n">
         <v>107.5445942077697</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M12" t="n">
-        <v>125.9004582561093</v>
+        <v>105.7834178045855</v>
       </c>
       <c r="N12" t="n">
+        <v>20.11704045152374</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="O12" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>131.2015301826823</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>45.47289252070389</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.47289252070389</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.419417804632872</v>
+      </c>
+      <c r="N15" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="M15" t="n">
-        <v>105.7834178045856</v>
-      </c>
-      <c r="N15" t="n">
-        <v>20.11704045152374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="Q15" t="n">
-        <v>131.2015301826823</v>
+        <v>66.20860973093151</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35895,16 +35895,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>69.12982849561647</v>
+      </c>
+      <c r="P17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="O17" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="P17" t="n">
-        <v>125.9004582561093</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L18" t="n">
+        <v>100.3639999999527</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.419417804632872</v>
+      </c>
+      <c r="N18" t="n">
+        <v>20.11704045152374</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="M18" t="n">
-        <v>125.9004582561093</v>
-      </c>
-      <c r="N18" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>131.2015301826823</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>69.12982849561647</v>
+      </c>
+      <c r="M20" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="O20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>69.12982849561641</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>107.5445942077697</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K21" t="n">
-        <v>100.3639999999527</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>5.419417804632872</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="N21" t="n">
         <v>20.11704045152374</v>
@@ -36217,7 +36217,7 @@
         <v>131.2015301826823</v>
       </c>
       <c r="P21" t="n">
-        <v>131.2015301826823</v>
+        <v>51.51098708404069</v>
       </c>
       <c r="Q21" t="n">
         <v>131.2015301826823</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>54.27243072054489</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>220.6600700171034</v>
@@ -36454,7 +36454,7 @@
         <v>389.8212435325732</v>
       </c>
       <c r="P24" t="n">
-        <v>183.6494926928832</v>
+        <v>237.9219234134282</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K26" t="n">
-        <v>242.504521076774</v>
+        <v>242.5045210767739</v>
       </c>
       <c r="L26" t="n">
         <v>353.6529763974178</v>
@@ -36609,13 +36609,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O26" t="n">
-        <v>334.0856525821683</v>
+        <v>334.0856525821682</v>
       </c>
       <c r="P26" t="n">
-        <v>247.0794429043021</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.5445942077694</v>
+        <v>107.5445942077699</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>220.6600700171035</v>
+        <v>220.6600700171034</v>
       </c>
       <c r="L27" t="n">
-        <v>358.7293379959386</v>
+        <v>300.9601620623311</v>
       </c>
       <c r="M27" t="n">
         <v>471.1244815546328</v>
       </c>
       <c r="N27" t="n">
-        <v>242.9862089959879</v>
+        <v>499.4594147950772</v>
       </c>
       <c r="O27" t="n">
-        <v>389.8212435325733</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P27" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q27" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L28" t="n">
         <v>100.1750500621707</v>
@@ -36767,10 +36767,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O28" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P28" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540524</v>
       </c>
       <c r="K29" t="n">
-        <v>242.504521076774</v>
+        <v>242.5045210767739</v>
       </c>
       <c r="L29" t="n">
         <v>353.6529763974178</v>
@@ -36846,13 +36846,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O29" t="n">
-        <v>334.0856525821683</v>
+        <v>334.0856525821682</v>
       </c>
       <c r="P29" t="n">
-        <v>247.0794429043021</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q29" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>54.2724307205449</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K30" t="n">
-        <v>220.6600700171035</v>
+        <v>220.6600700171034</v>
       </c>
       <c r="L30" t="n">
         <v>358.7293379959386</v>
@@ -36925,7 +36925,7 @@
         <v>242.9862089959879</v>
       </c>
       <c r="O30" t="n">
-        <v>389.8212435325733</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P30" t="n">
         <v>295.6910993470357</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L31" t="n">
         <v>100.1750500621707</v>
@@ -37004,10 +37004,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O31" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P31" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540524</v>
       </c>
       <c r="K32" t="n">
-        <v>242.504521076774</v>
+        <v>242.5045210767739</v>
       </c>
       <c r="L32" t="n">
         <v>353.6529763974178</v>
@@ -37083,13 +37083,13 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O32" t="n">
-        <v>334.0856525821683</v>
+        <v>334.0856525821682</v>
       </c>
       <c r="P32" t="n">
-        <v>247.0794429043021</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.5445942077694</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K33" t="n">
-        <v>18.45929493855884</v>
+        <v>220.6600700171034</v>
       </c>
       <c r="L33" t="n">
         <v>358.7293379959386</v>
@@ -37159,10 +37159,10 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N33" t="n">
-        <v>499.4594147950773</v>
+        <v>242.9862089959879</v>
       </c>
       <c r="O33" t="n">
-        <v>389.8212435325733</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P33" t="n">
         <v>295.6910993470357</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L34" t="n">
         <v>100.1750500621707</v>
@@ -37241,10 +37241,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O34" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P34" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.5045210767739</v>
       </c>
       <c r="L35" t="n">
         <v>353.6529763974178</v>
       </c>
       <c r="M35" t="n">
-        <v>410.2813662320701</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>205.567390180869</v>
+        <v>373.3442353361657</v>
       </c>
       <c r="O35" t="n">
-        <v>334.0856525821683</v>
+        <v>334.0856525821682</v>
       </c>
       <c r="P35" t="n">
-        <v>247.0794429043021</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q35" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>54.2724307205449</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K36" t="n">
-        <v>220.6600700171035</v>
+        <v>220.6600700171034</v>
       </c>
       <c r="L36" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M36" t="n">
+        <v>71.51375428749238</v>
+      </c>
+      <c r="N36" t="n">
         <v>418.782986806008</v>
       </c>
-      <c r="N36" t="n">
-        <v>165.64389847303</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6910993470357</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>144.4315991449368</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L37" t="n">
         <v>100.1750500621707</v>
@@ -37478,10 +37478,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O37" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P37" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>242.5045210767739</v>
       </c>
       <c r="L38" t="n">
-        <v>353.6529763974178</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>410.2813662320701</v>
       </c>
       <c r="N38" t="n">
-        <v>313.1119843886388</v>
+        <v>402.1403521728462</v>
       </c>
       <c r="O38" t="n">
-        <v>334.0856525821683</v>
+        <v>334.0856525821682</v>
       </c>
       <c r="P38" t="n">
-        <v>247.0794429043021</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>22.12008753643691</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>54.2724307205449</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>220.6600700171034</v>
       </c>
       <c r="L39" t="n">
-        <v>80.8606752924276</v>
+        <v>114.4349524848716</v>
       </c>
       <c r="M39" t="n">
         <v>418.782986806008</v>
       </c>
       <c r="N39" t="n">
-        <v>418.782986806008</v>
+        <v>20.11704045152374</v>
       </c>
       <c r="O39" t="n">
-        <v>389.8212435325733</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P39" t="n">
         <v>295.6910993470357</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L40" t="n">
         <v>100.1750500621707</v>
@@ -37715,10 +37715,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O40" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P40" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K41" t="n">
-        <v>158.0510751200947</v>
+        <v>184.1970428778054</v>
       </c>
       <c r="L41" t="n">
-        <v>353.6529763974178</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>410.2813662320701</v>
@@ -37794,10 +37794,10 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O41" t="n">
-        <v>334.0856525821683</v>
+        <v>334.0856525821682</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K42" t="n">
-        <v>220.6600700171035</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M42" t="n">
-        <v>5.4194178046329</v>
+        <v>292.1738243045959</v>
       </c>
       <c r="N42" t="n">
-        <v>243.4586546623767</v>
+        <v>418.782986806008</v>
       </c>
       <c r="O42" t="n">
-        <v>389.8212435325733</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P42" t="n">
-        <v>295.6910993470357</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>144.4315991449368</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L43" t="n">
         <v>100.1750500621707</v>
@@ -37952,10 +37952,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O43" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P43" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>242.504521076774</v>
+        <v>242.5045210767739</v>
       </c>
       <c r="L44" t="n">
         <v>353.6529763974178</v>
@@ -38031,10 +38031,10 @@
         <v>402.1403521728462</v>
       </c>
       <c r="O44" t="n">
-        <v>169.2046408900838</v>
+        <v>2.55276372118724</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>247.079442904302</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K45" t="n">
-        <v>220.6600700171035</v>
+        <v>220.6600700171034</v>
       </c>
       <c r="L45" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M45" t="n">
+        <v>71.51375428749238</v>
+      </c>
+      <c r="N45" t="n">
         <v>418.782986806008</v>
       </c>
-      <c r="N45" t="n">
-        <v>20.11704045152376</v>
-      </c>
       <c r="O45" t="n">
-        <v>389.8212435325733</v>
+        <v>389.8212435325732</v>
       </c>
       <c r="P45" t="n">
-        <v>105.6691445565134</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>144.4315991449368</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L46" t="n">
         <v>100.1750500621707</v>
@@ -38189,10 +38189,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O46" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P46" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
